--- a/src/data/raw/FSL.NS_data.xlsx
+++ b/src/data/raw/FSL.NS_data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F490"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5336,4906 +5336,6 @@
         <v>956353</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B246" t="n">
-        <v>181.9203643798828</v>
-      </c>
-      <c r="C246" t="n">
-        <v>183.0994443969499</v>
-      </c>
-      <c r="D246" t="n">
-        <v>179.9061351680812</v>
-      </c>
-      <c r="E246" t="n">
-        <v>181.8712485396927</v>
-      </c>
-      <c r="F246" t="n">
-        <v>981796</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>45293</v>
-      </c>
-      <c r="B247" t="n">
-        <v>180.9378051757812</v>
-      </c>
-      <c r="C247" t="n">
-        <v>183.0503110164368</v>
-      </c>
-      <c r="D247" t="n">
-        <v>178.6288059918496</v>
-      </c>
-      <c r="E247" t="n">
-        <v>182.0186235121748</v>
-      </c>
-      <c r="F247" t="n">
-        <v>1626019</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B248" t="n">
-        <v>182.7555389404297</v>
-      </c>
-      <c r="C248" t="n">
-        <v>183.4924564361572</v>
-      </c>
-      <c r="D248" t="n">
-        <v>178.9726897986451</v>
-      </c>
-      <c r="E248" t="n">
-        <v>179.8078689575195</v>
-      </c>
-      <c r="F248" t="n">
-        <v>1096851</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B249" t="n">
-        <v>185.8506011962891</v>
-      </c>
-      <c r="C249" t="n">
-        <v>189.1913031046712</v>
-      </c>
-      <c r="D249" t="n">
-        <v>183.0011926500633</v>
-      </c>
-      <c r="E249" t="n">
-        <v>183.0011926500633</v>
-      </c>
-      <c r="F249" t="n">
-        <v>3189972</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B250" t="n">
-        <v>189.8790893554688</v>
-      </c>
-      <c r="C250" t="n">
-        <v>194.9883813874659</v>
-      </c>
-      <c r="D250" t="n">
-        <v>185.1628140210768</v>
-      </c>
-      <c r="E250" t="n">
-        <v>185.7032232247534</v>
-      </c>
-      <c r="F250" t="n">
-        <v>6971072</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>45299</v>
-      </c>
-      <c r="B251" t="n">
-        <v>184.8680419921875</v>
-      </c>
-      <c r="C251" t="n">
-        <v>191.8933315783718</v>
-      </c>
-      <c r="D251" t="n">
-        <v>183.9837469358745</v>
-      </c>
-      <c r="E251" t="n">
-        <v>190.9599056872357</v>
-      </c>
-      <c r="F251" t="n">
-        <v>1490456</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>45300</v>
-      </c>
-      <c r="B252" t="n">
-        <v>187.0787963867188</v>
-      </c>
-      <c r="C252" t="n">
-        <v>188.9456631791912</v>
-      </c>
-      <c r="D252" t="n">
-        <v>185.1628137515866</v>
-      </c>
-      <c r="E252" t="n">
-        <v>186.7840413602569</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1366251</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="B253" t="n">
-        <v>187.2261810302734</v>
-      </c>
-      <c r="C253" t="n">
-        <v>190.7142602923131</v>
-      </c>
-      <c r="D253" t="n">
-        <v>185.9488543296163</v>
-      </c>
-      <c r="E253" t="n">
-        <v>188.3069843980408</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1428349</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>45302</v>
-      </c>
-      <c r="B254" t="n">
-        <v>186.7840423583984</v>
-      </c>
-      <c r="C254" t="n">
-        <v>188.7491558393174</v>
-      </c>
-      <c r="D254" t="n">
-        <v>185.7523547823908</v>
-      </c>
-      <c r="E254" t="n">
-        <v>188.4052549831062</v>
-      </c>
-      <c r="F254" t="n">
-        <v>862480</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>45303</v>
-      </c>
-      <c r="B255" t="n">
-        <v>206.2386474609375</v>
-      </c>
-      <c r="C255" t="n">
-        <v>213.2148060999683</v>
-      </c>
-      <c r="D255" t="n">
-        <v>189.6334450566538</v>
-      </c>
-      <c r="E255" t="n">
-        <v>189.6334450566538</v>
-      </c>
-      <c r="F255" t="n">
-        <v>54201317</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>45306</v>
-      </c>
-      <c r="B256" t="n">
-        <v>205.4034881591797</v>
-      </c>
-      <c r="C256" t="n">
-        <v>209.5793542770117</v>
-      </c>
-      <c r="D256" t="n">
-        <v>203.1436046733572</v>
-      </c>
-      <c r="E256" t="n">
-        <v>206.9264540947966</v>
-      </c>
-      <c r="F256" t="n">
-        <v>7330786</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>45307</v>
-      </c>
-      <c r="B257" t="n">
-        <v>198.3290710449219</v>
-      </c>
-      <c r="C257" t="n">
-        <v>205.8456236191685</v>
-      </c>
-      <c r="D257" t="n">
-        <v>196.2656960283003</v>
-      </c>
-      <c r="E257" t="n">
-        <v>205.3543452811752</v>
-      </c>
-      <c r="F257" t="n">
-        <v>4156094</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>45308</v>
-      </c>
-      <c r="B258" t="n">
-        <v>196.4622039794922</v>
-      </c>
-      <c r="C258" t="n">
-        <v>202.1119048553291</v>
-      </c>
-      <c r="D258" t="n">
-        <v>193.6127956217722</v>
-      </c>
-      <c r="E258" t="n">
-        <v>196.5113348117201</v>
-      </c>
-      <c r="F258" t="n">
-        <v>3842796</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>45309</v>
-      </c>
-      <c r="B259" t="n">
-        <v>194.3005828857422</v>
-      </c>
-      <c r="C259" t="n">
-        <v>197.49389208614</v>
-      </c>
-      <c r="D259" t="n">
-        <v>185.5558344570875</v>
-      </c>
-      <c r="E259" t="n">
-        <v>197.2973837492559</v>
-      </c>
-      <c r="F259" t="n">
-        <v>3882847</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>45310</v>
-      </c>
-      <c r="B260" t="n">
-        <v>201.1784820556641</v>
-      </c>
-      <c r="C260" t="n">
-        <v>202.1119079116097</v>
-      </c>
-      <c r="D260" t="n">
-        <v>195.184880256223</v>
-      </c>
-      <c r="E260" t="n">
-        <v>195.3322727551356</v>
-      </c>
-      <c r="F260" t="n">
-        <v>4003241</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>45314</v>
-      </c>
-      <c r="B261" t="n">
-        <v>187.2261810302734</v>
-      </c>
-      <c r="C261" t="n">
-        <v>200.6380739056104</v>
-      </c>
-      <c r="D261" t="n">
-        <v>186.0962318366583</v>
-      </c>
-      <c r="E261" t="n">
-        <v>199.0659921908692</v>
-      </c>
-      <c r="F261" t="n">
-        <v>2677773</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>45315</v>
-      </c>
-      <c r="B262" t="n">
-        <v>191.9424591064453</v>
-      </c>
-      <c r="C262" t="n">
-        <v>194.1532117017672</v>
-      </c>
-      <c r="D262" t="n">
-        <v>188.1104789456453</v>
-      </c>
-      <c r="E262" t="n">
-        <v>188.650888134138</v>
-      </c>
-      <c r="F262" t="n">
-        <v>1675776</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>45316</v>
-      </c>
-      <c r="B263" t="n">
-        <v>191.4020538330078</v>
-      </c>
-      <c r="C263" t="n">
-        <v>195.1357724022262</v>
-      </c>
-      <c r="D263" t="n">
-        <v>190.6160054511788</v>
-      </c>
-      <c r="E263" t="n">
-        <v>193.3671672912674</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1188550</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>45320</v>
-      </c>
-      <c r="B264" t="n">
-        <v>191.8441925048828</v>
-      </c>
-      <c r="C264" t="n">
-        <v>193.416289195955</v>
-      </c>
-      <c r="D264" t="n">
-        <v>188.2087357734818</v>
-      </c>
-      <c r="E264" t="n">
-        <v>191.4020449957141</v>
-      </c>
-      <c r="F264" t="n">
-        <v>1869281</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>45321</v>
-      </c>
-      <c r="B265" t="n">
-        <v>197.9851684570312</v>
-      </c>
-      <c r="C265" t="n">
-        <v>204.7648034642171</v>
-      </c>
-      <c r="D265" t="n">
-        <v>192.7776151219194</v>
-      </c>
-      <c r="E265" t="n">
-        <v>192.7776151219194</v>
-      </c>
-      <c r="F265" t="n">
-        <v>9294910</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>45322</v>
-      </c>
-      <c r="B266" t="n">
-        <v>201.0311126708984</v>
-      </c>
-      <c r="C266" t="n">
-        <v>202.750586945968</v>
-      </c>
-      <c r="D266" t="n">
-        <v>194.7918714471671</v>
-      </c>
-      <c r="E266" t="n">
-        <v>198.6238366917003</v>
-      </c>
-      <c r="F266" t="n">
-        <v>3243597</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B267" t="n">
-        <v>198.4764556884766</v>
-      </c>
-      <c r="C267" t="n">
-        <v>202.0627816877775</v>
-      </c>
-      <c r="D267" t="n">
-        <v>196.5113422658184</v>
-      </c>
-      <c r="E267" t="n">
-        <v>202.0627816877775</v>
-      </c>
-      <c r="F267" t="n">
-        <v>1058832</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>45324</v>
-      </c>
-      <c r="B268" t="n">
-        <v>196.0200653076172</v>
-      </c>
-      <c r="C268" t="n">
-        <v>201.4241272584538</v>
-      </c>
-      <c r="D268" t="n">
-        <v>194.644491899</v>
-      </c>
-      <c r="E268" t="n">
-        <v>199.5572754906696</v>
-      </c>
-      <c r="F268" t="n">
-        <v>1631602</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>45327</v>
-      </c>
-      <c r="B269" t="n">
-        <v>198.0834350585938</v>
-      </c>
-      <c r="C269" t="n">
-        <v>201.4241218135736</v>
-      </c>
-      <c r="D269" t="n">
-        <v>196.4130766884785</v>
-      </c>
-      <c r="E269" t="n">
-        <v>196.8061083607631</v>
-      </c>
-      <c r="F269" t="n">
-        <v>1930715</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>45328</v>
-      </c>
-      <c r="B270" t="n">
-        <v>206.2877807617188</v>
-      </c>
-      <c r="C270" t="n">
-        <v>207.3194683182256</v>
-      </c>
-      <c r="D270" t="n">
-        <v>197.6904094452047</v>
-      </c>
-      <c r="E270" t="n">
-        <v>199.3116370318942</v>
-      </c>
-      <c r="F270" t="n">
-        <v>6927634</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>45329</v>
-      </c>
-      <c r="B271" t="n">
-        <v>203.0944671630859</v>
-      </c>
-      <c r="C271" t="n">
-        <v>208.9406765373793</v>
-      </c>
-      <c r="D271" t="n">
-        <v>194.9392435436544</v>
-      </c>
-      <c r="E271" t="n">
-        <v>207.4668414854083</v>
-      </c>
-      <c r="F271" t="n">
-        <v>6549084</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>45330</v>
-      </c>
-      <c r="B272" t="n">
-        <v>212.8709106445312</v>
-      </c>
-      <c r="C272" t="n">
-        <v>217.6363168064174</v>
-      </c>
-      <c r="D272" t="n">
-        <v>204.9613409217396</v>
-      </c>
-      <c r="E272" t="n">
-        <v>207.466848601934</v>
-      </c>
-      <c r="F272" t="n">
-        <v>11892908</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B273" t="n">
-        <v>202.2593078613281</v>
-      </c>
-      <c r="C273" t="n">
-        <v>216.3589878711079</v>
-      </c>
-      <c r="D273" t="n">
-        <v>201.4732594827135</v>
-      </c>
-      <c r="E273" t="n">
-        <v>215.4255619807768</v>
-      </c>
-      <c r="F273" t="n">
-        <v>6050185</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B274" t="n">
-        <v>195.7744293212891</v>
-      </c>
-      <c r="C274" t="n">
-        <v>205.3543574813019</v>
-      </c>
-      <c r="D274" t="n">
-        <v>192.5811199346181</v>
-      </c>
-      <c r="E274" t="n">
-        <v>202.4066872782211</v>
-      </c>
-      <c r="F274" t="n">
-        <v>3282187</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>45335</v>
-      </c>
-      <c r="B275" t="n">
-        <v>194.3005828857422</v>
-      </c>
-      <c r="C275" t="n">
-        <v>196.5113354090945</v>
-      </c>
-      <c r="D275" t="n">
-        <v>187.1770469771625</v>
-      </c>
-      <c r="E275" t="n">
-        <v>196.5113354090945</v>
-      </c>
-      <c r="F275" t="n">
-        <v>2993774</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B276" t="n">
-        <v>195.5779113769531</v>
-      </c>
-      <c r="C276" t="n">
-        <v>196.7569764018097</v>
-      </c>
-      <c r="D276" t="n">
-        <v>189.7317020928776</v>
-      </c>
-      <c r="E276" t="n">
-        <v>191.5985537995151</v>
-      </c>
-      <c r="F276" t="n">
-        <v>2388114</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>45337</v>
-      </c>
-      <c r="B277" t="n">
-        <v>197.1499938964844</v>
-      </c>
-      <c r="C277" t="n">
-        <v>199.1642381099695</v>
-      </c>
-      <c r="D277" t="n">
-        <v>195.6761588611477</v>
-      </c>
-      <c r="E277" t="n">
-        <v>198.7712214309299</v>
-      </c>
-      <c r="F277" t="n">
-        <v>2674635</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>45338</v>
-      </c>
-      <c r="B278" t="n">
-        <v>199.4499969482422</v>
-      </c>
-      <c r="C278" t="n">
-        <v>202</v>
-      </c>
-      <c r="D278" t="n">
-        <v>196.1499938964844</v>
-      </c>
-      <c r="E278" t="n">
-        <v>199.6000061035156</v>
-      </c>
-      <c r="F278" t="n">
-        <v>2429371</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>45341</v>
-      </c>
-      <c r="B279" t="n">
-        <v>198.1999969482422</v>
-      </c>
-      <c r="C279" t="n">
-        <v>202.3500061035156</v>
-      </c>
-      <c r="D279" t="n">
-        <v>197</v>
-      </c>
-      <c r="E279" t="n">
-        <v>200.4499969482422</v>
-      </c>
-      <c r="F279" t="n">
-        <v>1300819</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B280" t="n">
-        <v>203.4499969482422</v>
-      </c>
-      <c r="C280" t="n">
-        <v>207.8999938964844</v>
-      </c>
-      <c r="D280" t="n">
-        <v>198.5500030517578</v>
-      </c>
-      <c r="E280" t="n">
-        <v>199.3999938964844</v>
-      </c>
-      <c r="F280" t="n">
-        <v>3365046</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>45343</v>
-      </c>
-      <c r="B281" t="n">
-        <v>198.6999969482422</v>
-      </c>
-      <c r="C281" t="n">
-        <v>205</v>
-      </c>
-      <c r="D281" t="n">
-        <v>196.25</v>
-      </c>
-      <c r="E281" t="n">
-        <v>204.6000061035156</v>
-      </c>
-      <c r="F281" t="n">
-        <v>1545186</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>45344</v>
-      </c>
-      <c r="B282" t="n">
-        <v>200.5500030517578</v>
-      </c>
-      <c r="C282" t="n">
-        <v>206.8999938964844</v>
-      </c>
-      <c r="D282" t="n">
-        <v>198.8999938964844</v>
-      </c>
-      <c r="E282" t="n">
-        <v>200</v>
-      </c>
-      <c r="F282" t="n">
-        <v>3015644</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>45345</v>
-      </c>
-      <c r="B283" t="n">
-        <v>201.5500030517578</v>
-      </c>
-      <c r="C283" t="n">
-        <v>205.5500030517578</v>
-      </c>
-      <c r="D283" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="E283" t="n">
-        <v>201</v>
-      </c>
-      <c r="F283" t="n">
-        <v>2060012</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>45348</v>
-      </c>
-      <c r="B284" t="n">
-        <v>205.4499969482422</v>
-      </c>
-      <c r="C284" t="n">
-        <v>208.5</v>
-      </c>
-      <c r="D284" t="n">
-        <v>202</v>
-      </c>
-      <c r="E284" t="n">
-        <v>202.5500030517578</v>
-      </c>
-      <c r="F284" t="n">
-        <v>2295126</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B285" t="n">
-        <v>206.9499969482422</v>
-      </c>
-      <c r="C285" t="n">
-        <v>209.3999938964844</v>
-      </c>
-      <c r="D285" t="n">
-        <v>204.1999969482422</v>
-      </c>
-      <c r="E285" t="n">
-        <v>205.5</v>
-      </c>
-      <c r="F285" t="n">
-        <v>1776909</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>45350</v>
-      </c>
-      <c r="B286" t="n">
-        <v>205.0500030517578</v>
-      </c>
-      <c r="C286" t="n">
-        <v>209.1999969482422</v>
-      </c>
-      <c r="D286" t="n">
-        <v>201.8000030517578</v>
-      </c>
-      <c r="E286" t="n">
-        <v>208.3500061035156</v>
-      </c>
-      <c r="F286" t="n">
-        <v>2678081</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B287" t="n">
-        <v>205.6999969482422</v>
-      </c>
-      <c r="C287" t="n">
-        <v>206.8500061035156</v>
-      </c>
-      <c r="D287" t="n">
-        <v>200.6999969482422</v>
-      </c>
-      <c r="E287" t="n">
-        <v>204.5500030517578</v>
-      </c>
-      <c r="F287" t="n">
-        <v>2243266</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B288" t="n">
-        <v>205.3500061035156</v>
-      </c>
-      <c r="C288" t="n">
-        <v>208.1999969482422</v>
-      </c>
-      <c r="D288" t="n">
-        <v>204.5500030517578</v>
-      </c>
-      <c r="E288" t="n">
-        <v>207</v>
-      </c>
-      <c r="F288" t="n">
-        <v>1316418</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>45355</v>
-      </c>
-      <c r="B289" t="n">
-        <v>205.8500061035156</v>
-      </c>
-      <c r="C289" t="n">
-        <v>206.8999938964844</v>
-      </c>
-      <c r="D289" t="n">
-        <v>200.3999938964844</v>
-      </c>
-      <c r="E289" t="n">
-        <v>203.5</v>
-      </c>
-      <c r="F289" t="n">
-        <v>1740755</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>45356</v>
-      </c>
-      <c r="B290" t="n">
-        <v>202.25</v>
-      </c>
-      <c r="C290" t="n">
-        <v>206.8000030517578</v>
-      </c>
-      <c r="D290" t="n">
-        <v>201.5500030517578</v>
-      </c>
-      <c r="E290" t="n">
-        <v>206</v>
-      </c>
-      <c r="F290" t="n">
-        <v>635122</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>45357</v>
-      </c>
-      <c r="B291" t="n">
-        <v>196.1000061035156</v>
-      </c>
-      <c r="C291" t="n">
-        <v>201.25</v>
-      </c>
-      <c r="D291" t="n">
-        <v>192.3999938964844</v>
-      </c>
-      <c r="E291" t="n">
-        <v>200.8000030517578</v>
-      </c>
-      <c r="F291" t="n">
-        <v>2373492</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>45358</v>
-      </c>
-      <c r="B292" t="n">
-        <v>197.8999938964844</v>
-      </c>
-      <c r="C292" t="n">
-        <v>199.6000061035156</v>
-      </c>
-      <c r="D292" t="n">
-        <v>195.6000061035156</v>
-      </c>
-      <c r="E292" t="n">
-        <v>198.1000061035156</v>
-      </c>
-      <c r="F292" t="n">
-        <v>1067902</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>45362</v>
-      </c>
-      <c r="B293" t="n">
-        <v>193.4499969482422</v>
-      </c>
-      <c r="C293" t="n">
-        <v>197</v>
-      </c>
-      <c r="D293" t="n">
-        <v>191</v>
-      </c>
-      <c r="E293" t="n">
-        <v>197</v>
-      </c>
-      <c r="F293" t="n">
-        <v>1198227</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>45363</v>
-      </c>
-      <c r="B294" t="n">
-        <v>189.5</v>
-      </c>
-      <c r="C294" t="n">
-        <v>197.1999969482422</v>
-      </c>
-      <c r="D294" t="n">
-        <v>187.5500030517578</v>
-      </c>
-      <c r="E294" t="n">
-        <v>193.4499969482422</v>
-      </c>
-      <c r="F294" t="n">
-        <v>1512968</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B295" t="n">
-        <v>182.0500030517578</v>
-      </c>
-      <c r="C295" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="D295" t="n">
-        <v>178.3999938964844</v>
-      </c>
-      <c r="E295" t="n">
-        <v>190.75</v>
-      </c>
-      <c r="F295" t="n">
-        <v>2871244</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>45365</v>
-      </c>
-      <c r="B296" t="n">
-        <v>194.25</v>
-      </c>
-      <c r="C296" t="n">
-        <v>195.75</v>
-      </c>
-      <c r="D296" t="n">
-        <v>179.8000030517578</v>
-      </c>
-      <c r="E296" t="n">
-        <v>182.6000061035156</v>
-      </c>
-      <c r="F296" t="n">
-        <v>1807786</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>45366</v>
-      </c>
-      <c r="B297" t="n">
-        <v>194.3000030517578</v>
-      </c>
-      <c r="C297" t="n">
-        <v>195.5</v>
-      </c>
-      <c r="D297" t="n">
-        <v>188.8500061035156</v>
-      </c>
-      <c r="E297" t="n">
-        <v>192</v>
-      </c>
-      <c r="F297" t="n">
-        <v>1684759</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>45369</v>
-      </c>
-      <c r="B298" t="n">
-        <v>190.1999969482422</v>
-      </c>
-      <c r="C298" t="n">
-        <v>194.25</v>
-      </c>
-      <c r="D298" t="n">
-        <v>187.25</v>
-      </c>
-      <c r="E298" t="n">
-        <v>194.25</v>
-      </c>
-      <c r="F298" t="n">
-        <v>1585669</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>45370</v>
-      </c>
-      <c r="B299" t="n">
-        <v>185.4499969482422</v>
-      </c>
-      <c r="C299" t="n">
-        <v>189.9499969482422</v>
-      </c>
-      <c r="D299" t="n">
-        <v>183.5500030517578</v>
-      </c>
-      <c r="E299" t="n">
-        <v>189.8500061035156</v>
-      </c>
-      <c r="F299" t="n">
-        <v>1193050</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>45371</v>
-      </c>
-      <c r="B300" t="n">
-        <v>186.9499969482422</v>
-      </c>
-      <c r="C300" t="n">
-        <v>187.9499969482422</v>
-      </c>
-      <c r="D300" t="n">
-        <v>179.3999938964844</v>
-      </c>
-      <c r="E300" t="n">
-        <v>186</v>
-      </c>
-      <c r="F300" t="n">
-        <v>1249238</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>45372</v>
-      </c>
-      <c r="B301" t="n">
-        <v>191.25</v>
-      </c>
-      <c r="C301" t="n">
-        <v>192.75</v>
-      </c>
-      <c r="D301" t="n">
-        <v>187.4499969482422</v>
-      </c>
-      <c r="E301" t="n">
-        <v>189</v>
-      </c>
-      <c r="F301" t="n">
-        <v>1096091</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>45373</v>
-      </c>
-      <c r="B302" t="n">
-        <v>192.4499969482422</v>
-      </c>
-      <c r="C302" t="n">
-        <v>194</v>
-      </c>
-      <c r="D302" t="n">
-        <v>182.5500030517578</v>
-      </c>
-      <c r="E302" t="n">
-        <v>188</v>
-      </c>
-      <c r="F302" t="n">
-        <v>1164446</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>45377</v>
-      </c>
-      <c r="B303" t="n">
-        <v>194.9499969482422</v>
-      </c>
-      <c r="C303" t="n">
-        <v>196.25</v>
-      </c>
-      <c r="D303" t="n">
-        <v>188.0500030517578</v>
-      </c>
-      <c r="E303" t="n">
-        <v>190.5</v>
-      </c>
-      <c r="F303" t="n">
-        <v>1056560</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B304" t="n">
-        <v>198.0500030517578</v>
-      </c>
-      <c r="C304" t="n">
-        <v>198.9499969482422</v>
-      </c>
-      <c r="D304" t="n">
-        <v>193.5</v>
-      </c>
-      <c r="E304" t="n">
-        <v>197</v>
-      </c>
-      <c r="F304" t="n">
-        <v>1726889</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>45379</v>
-      </c>
-      <c r="B305" t="n">
-        <v>197.6499938964844</v>
-      </c>
-      <c r="C305" t="n">
-        <v>200.6999969482422</v>
-      </c>
-      <c r="D305" t="n">
-        <v>196.6999969482422</v>
-      </c>
-      <c r="E305" t="n">
-        <v>199.6499938964844</v>
-      </c>
-      <c r="F305" t="n">
-        <v>913903</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B306" t="n">
-        <v>200.1499938964844</v>
-      </c>
-      <c r="C306" t="n">
-        <v>201.5</v>
-      </c>
-      <c r="D306" t="n">
-        <v>197.0500030517578</v>
-      </c>
-      <c r="E306" t="n">
-        <v>197.6499938964844</v>
-      </c>
-      <c r="F306" t="n">
-        <v>1005499</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>45384</v>
-      </c>
-      <c r="B307" t="n">
-        <v>200.6000061035156</v>
-      </c>
-      <c r="C307" t="n">
-        <v>202.6999969482422</v>
-      </c>
-      <c r="D307" t="n">
-        <v>198.5500030517578</v>
-      </c>
-      <c r="E307" t="n">
-        <v>201</v>
-      </c>
-      <c r="F307" t="n">
-        <v>953729</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>45385</v>
-      </c>
-      <c r="B308" t="n">
-        <v>202.0500030517578</v>
-      </c>
-      <c r="C308" t="n">
-        <v>204.3999938964844</v>
-      </c>
-      <c r="D308" t="n">
-        <v>199.0500030517578</v>
-      </c>
-      <c r="E308" t="n">
-        <v>200</v>
-      </c>
-      <c r="F308" t="n">
-        <v>1644349</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>45386</v>
-      </c>
-      <c r="B309" t="n">
-        <v>203.3000030517578</v>
-      </c>
-      <c r="C309" t="n">
-        <v>204.8500061035156</v>
-      </c>
-      <c r="D309" t="n">
-        <v>201.8999938964844</v>
-      </c>
-      <c r="E309" t="n">
-        <v>202.5500030517578</v>
-      </c>
-      <c r="F309" t="n">
-        <v>1036901</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>45387</v>
-      </c>
-      <c r="B310" t="n">
-        <v>202.3000030517578</v>
-      </c>
-      <c r="C310" t="n">
-        <v>203</v>
-      </c>
-      <c r="D310" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="E310" t="n">
-        <v>200.5</v>
-      </c>
-      <c r="F310" t="n">
-        <v>942077</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>45390</v>
-      </c>
-      <c r="B311" t="n">
-        <v>198.9499969482422</v>
-      </c>
-      <c r="C311" t="n">
-        <v>203.6999969482422</v>
-      </c>
-      <c r="D311" t="n">
-        <v>197.1499938964844</v>
-      </c>
-      <c r="E311" t="n">
-        <v>202</v>
-      </c>
-      <c r="F311" t="n">
-        <v>1462873</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B312" t="n">
-        <v>204.5500030517578</v>
-      </c>
-      <c r="C312" t="n">
-        <v>208.1999969482422</v>
-      </c>
-      <c r="D312" t="n">
-        <v>199</v>
-      </c>
-      <c r="E312" t="n">
-        <v>200.75</v>
-      </c>
-      <c r="F312" t="n">
-        <v>2858421</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B313" t="n">
-        <v>204.5</v>
-      </c>
-      <c r="C313" t="n">
-        <v>208.4499969482422</v>
-      </c>
-      <c r="D313" t="n">
-        <v>203.8000030517578</v>
-      </c>
-      <c r="E313" t="n">
-        <v>205.8999938964844</v>
-      </c>
-      <c r="F313" t="n">
-        <v>1288174</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B314" t="n">
-        <v>203.5</v>
-      </c>
-      <c r="C314" t="n">
-        <v>206.9499969482422</v>
-      </c>
-      <c r="D314" t="n">
-        <v>201.8000030517578</v>
-      </c>
-      <c r="E314" t="n">
-        <v>204.5</v>
-      </c>
-      <c r="F314" t="n">
-        <v>1181423</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>45397</v>
-      </c>
-      <c r="B315" t="n">
-        <v>202.1000061035156</v>
-      </c>
-      <c r="C315" t="n">
-        <v>203</v>
-      </c>
-      <c r="D315" t="n">
-        <v>193</v>
-      </c>
-      <c r="E315" t="n">
-        <v>197</v>
-      </c>
-      <c r="F315" t="n">
-        <v>1578200</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>45398</v>
-      </c>
-      <c r="B316" t="n">
-        <v>199.25</v>
-      </c>
-      <c r="C316" t="n">
-        <v>204.3000030517578</v>
-      </c>
-      <c r="D316" t="n">
-        <v>198.5500030517578</v>
-      </c>
-      <c r="E316" t="n">
-        <v>199.75</v>
-      </c>
-      <c r="F316" t="n">
-        <v>1066379</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>45400</v>
-      </c>
-      <c r="B317" t="n">
-        <v>197.8500061035156</v>
-      </c>
-      <c r="C317" t="n">
-        <v>200.9499969482422</v>
-      </c>
-      <c r="D317" t="n">
-        <v>196.5</v>
-      </c>
-      <c r="E317" t="n">
-        <v>199.25</v>
-      </c>
-      <c r="F317" t="n">
-        <v>1371493</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="B318" t="n">
-        <v>197.1499938964844</v>
-      </c>
-      <c r="C318" t="n">
-        <v>199.6999969482422</v>
-      </c>
-      <c r="D318" t="n">
-        <v>193.3999938964844</v>
-      </c>
-      <c r="E318" t="n">
-        <v>195</v>
-      </c>
-      <c r="F318" t="n">
-        <v>833281</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>45404</v>
-      </c>
-      <c r="B319" t="n">
-        <v>199.8999938964844</v>
-      </c>
-      <c r="C319" t="n">
-        <v>202.75</v>
-      </c>
-      <c r="D319" t="n">
-        <v>197.0500030517578</v>
-      </c>
-      <c r="E319" t="n">
-        <v>198.8999938964844</v>
-      </c>
-      <c r="F319" t="n">
-        <v>1486612</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>45405</v>
-      </c>
-      <c r="B320" t="n">
-        <v>203.5</v>
-      </c>
-      <c r="C320" t="n">
-        <v>204.25</v>
-      </c>
-      <c r="D320" t="n">
-        <v>200.6999969482422</v>
-      </c>
-      <c r="E320" t="n">
-        <v>202</v>
-      </c>
-      <c r="F320" t="n">
-        <v>831715</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>45406</v>
-      </c>
-      <c r="B321" t="n">
-        <v>201.1499938964844</v>
-      </c>
-      <c r="C321" t="n">
-        <v>205.3999938964844</v>
-      </c>
-      <c r="D321" t="n">
-        <v>200.1000061035156</v>
-      </c>
-      <c r="E321" t="n">
-        <v>203.5</v>
-      </c>
-      <c r="F321" t="n">
-        <v>626376</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>45407</v>
-      </c>
-      <c r="B322" t="n">
-        <v>215.6499938964844</v>
-      </c>
-      <c r="C322" t="n">
-        <v>221</v>
-      </c>
-      <c r="D322" t="n">
-        <v>200</v>
-      </c>
-      <c r="E322" t="n">
-        <v>201</v>
-      </c>
-      <c r="F322" t="n">
-        <v>9058887</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>45408</v>
-      </c>
-      <c r="B323" t="n">
-        <v>217.8000030517578</v>
-      </c>
-      <c r="C323" t="n">
-        <v>228.8999938964844</v>
-      </c>
-      <c r="D323" t="n">
-        <v>215.6499938964844</v>
-      </c>
-      <c r="E323" t="n">
-        <v>215.6499938964844</v>
-      </c>
-      <c r="F323" t="n">
-        <v>13995517</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>45411</v>
-      </c>
-      <c r="B324" t="n">
-        <v>217.8000030517578</v>
-      </c>
-      <c r="C324" t="n">
-        <v>222.3500061035156</v>
-      </c>
-      <c r="D324" t="n">
-        <v>215</v>
-      </c>
-      <c r="E324" t="n">
-        <v>219</v>
-      </c>
-      <c r="F324" t="n">
-        <v>2318900</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>45412</v>
-      </c>
-      <c r="B325" t="n">
-        <v>211.4499969482422</v>
-      </c>
-      <c r="C325" t="n">
-        <v>224</v>
-      </c>
-      <c r="D325" t="n">
-        <v>210</v>
-      </c>
-      <c r="E325" t="n">
-        <v>218.1000061035156</v>
-      </c>
-      <c r="F325" t="n">
-        <v>4469060</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>45414</v>
-      </c>
-      <c r="B326" t="n">
-        <v>210.3000030517578</v>
-      </c>
-      <c r="C326" t="n">
-        <v>212.8000030517578</v>
-      </c>
-      <c r="D326" t="n">
-        <v>210</v>
-      </c>
-      <c r="E326" t="n">
-        <v>212.6499938964844</v>
-      </c>
-      <c r="F326" t="n">
-        <v>1204487</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>45415</v>
-      </c>
-      <c r="B327" t="n">
-        <v>208</v>
-      </c>
-      <c r="C327" t="n">
-        <v>213.8999938964844</v>
-      </c>
-      <c r="D327" t="n">
-        <v>204.6999969482422</v>
-      </c>
-      <c r="E327" t="n">
-        <v>211.5500030517578</v>
-      </c>
-      <c r="F327" t="n">
-        <v>3827533</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>45418</v>
-      </c>
-      <c r="B328" t="n">
-        <v>197.5500030517578</v>
-      </c>
-      <c r="C328" t="n">
-        <v>209.1499938964844</v>
-      </c>
-      <c r="D328" t="n">
-        <v>195.75</v>
-      </c>
-      <c r="E328" t="n">
-        <v>208</v>
-      </c>
-      <c r="F328" t="n">
-        <v>2196798</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>45419</v>
-      </c>
-      <c r="B329" t="n">
-        <v>190.8999938964844</v>
-      </c>
-      <c r="C329" t="n">
-        <v>199.3000030517578</v>
-      </c>
-      <c r="D329" t="n">
-        <v>187.6000061035156</v>
-      </c>
-      <c r="E329" t="n">
-        <v>199</v>
-      </c>
-      <c r="F329" t="n">
-        <v>1837720</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>45420</v>
-      </c>
-      <c r="B330" t="n">
-        <v>191.5500030517578</v>
-      </c>
-      <c r="C330" t="n">
-        <v>194.4499969482422</v>
-      </c>
-      <c r="D330" t="n">
-        <v>187.75</v>
-      </c>
-      <c r="E330" t="n">
-        <v>191.3000030517578</v>
-      </c>
-      <c r="F330" t="n">
-        <v>1742241</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>45421</v>
-      </c>
-      <c r="B331" t="n">
-        <v>185.4499969482422</v>
-      </c>
-      <c r="C331" t="n">
-        <v>192.0500030517578</v>
-      </c>
-      <c r="D331" t="n">
-        <v>183</v>
-      </c>
-      <c r="E331" t="n">
-        <v>190.6999969482422</v>
-      </c>
-      <c r="F331" t="n">
-        <v>1731518</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>45422</v>
-      </c>
-      <c r="B332" t="n">
-        <v>185.8500061035156</v>
-      </c>
-      <c r="C332" t="n">
-        <v>187.1999969482422</v>
-      </c>
-      <c r="D332" t="n">
-        <v>181.75</v>
-      </c>
-      <c r="E332" t="n">
-        <v>185.5500030517578</v>
-      </c>
-      <c r="F332" t="n">
-        <v>1198645</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>45425</v>
-      </c>
-      <c r="B333" t="n">
-        <v>184.0500030517578</v>
-      </c>
-      <c r="C333" t="n">
-        <v>185.6999969482422</v>
-      </c>
-      <c r="D333" t="n">
-        <v>180.1000061035156</v>
-      </c>
-      <c r="E333" t="n">
-        <v>184.5500030517578</v>
-      </c>
-      <c r="F333" t="n">
-        <v>1064705</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>45426</v>
-      </c>
-      <c r="B334" t="n">
-        <v>190.8000030517578</v>
-      </c>
-      <c r="C334" t="n">
-        <v>191.9499969482422</v>
-      </c>
-      <c r="D334" t="n">
-        <v>185</v>
-      </c>
-      <c r="E334" t="n">
-        <v>185.5500030517578</v>
-      </c>
-      <c r="F334" t="n">
-        <v>1155054</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>45427</v>
-      </c>
-      <c r="B335" t="n">
-        <v>194.6000061035156</v>
-      </c>
-      <c r="C335" t="n">
-        <v>195.6000061035156</v>
-      </c>
-      <c r="D335" t="n">
-        <v>191.1999969482422</v>
-      </c>
-      <c r="E335" t="n">
-        <v>191.9499969482422</v>
-      </c>
-      <c r="F335" t="n">
-        <v>1098402</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>45428</v>
-      </c>
-      <c r="B336" t="n">
-        <v>199.25</v>
-      </c>
-      <c r="C336" t="n">
-        <v>201.3999938964844</v>
-      </c>
-      <c r="D336" t="n">
-        <v>196.3000030517578</v>
-      </c>
-      <c r="E336" t="n">
-        <v>196.3000030517578</v>
-      </c>
-      <c r="F336" t="n">
-        <v>1844351</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>45429</v>
-      </c>
-      <c r="B337" t="n">
-        <v>198.3999938964844</v>
-      </c>
-      <c r="C337" t="n">
-        <v>202.3999938964844</v>
-      </c>
-      <c r="D337" t="n">
-        <v>197.1000061035156</v>
-      </c>
-      <c r="E337" t="n">
-        <v>201.25</v>
-      </c>
-      <c r="F337" t="n">
-        <v>1052265</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>45433</v>
-      </c>
-      <c r="B338" t="n">
-        <v>196.5500030517578</v>
-      </c>
-      <c r="C338" t="n">
-        <v>201.1000061035156</v>
-      </c>
-      <c r="D338" t="n">
-        <v>195.9499969482422</v>
-      </c>
-      <c r="E338" t="n">
-        <v>196.6499938964844</v>
-      </c>
-      <c r="F338" t="n">
-        <v>1242334</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>45434</v>
-      </c>
-      <c r="B339" t="n">
-        <v>199.3999938964844</v>
-      </c>
-      <c r="C339" t="n">
-        <v>200</v>
-      </c>
-      <c r="D339" t="n">
-        <v>194.1499938964844</v>
-      </c>
-      <c r="E339" t="n">
-        <v>197.6999969482422</v>
-      </c>
-      <c r="F339" t="n">
-        <v>1163944</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B340" t="n">
-        <v>196.8500061035156</v>
-      </c>
-      <c r="C340" t="n">
-        <v>201.1000061035156</v>
-      </c>
-      <c r="D340" t="n">
-        <v>195.75</v>
-      </c>
-      <c r="E340" t="n">
-        <v>200</v>
-      </c>
-      <c r="F340" t="n">
-        <v>902695</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>45436</v>
-      </c>
-      <c r="B341" t="n">
-        <v>195.25</v>
-      </c>
-      <c r="C341" t="n">
-        <v>198.3000030517578</v>
-      </c>
-      <c r="D341" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="E341" t="n">
-        <v>196.8000030517578</v>
-      </c>
-      <c r="F341" t="n">
-        <v>893413</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>45439</v>
-      </c>
-      <c r="B342" t="n">
-        <v>194.3000030517578</v>
-      </c>
-      <c r="C342" t="n">
-        <v>196.75</v>
-      </c>
-      <c r="D342" t="n">
-        <v>193.6499938964844</v>
-      </c>
-      <c r="E342" t="n">
-        <v>195.3000030517578</v>
-      </c>
-      <c r="F342" t="n">
-        <v>868448</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>45440</v>
-      </c>
-      <c r="B343" t="n">
-        <v>193.3000030517578</v>
-      </c>
-      <c r="C343" t="n">
-        <v>196.5500030517578</v>
-      </c>
-      <c r="D343" t="n">
-        <v>192.5500030517578</v>
-      </c>
-      <c r="E343" t="n">
-        <v>195</v>
-      </c>
-      <c r="F343" t="n">
-        <v>693578</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>45441</v>
-      </c>
-      <c r="B344" t="n">
-        <v>193.3999938964844</v>
-      </c>
-      <c r="C344" t="n">
-        <v>194.6499938964844</v>
-      </c>
-      <c r="D344" t="n">
-        <v>191.8000030517578</v>
-      </c>
-      <c r="E344" t="n">
-        <v>191.8000030517578</v>
-      </c>
-      <c r="F344" t="n">
-        <v>645903</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>45442</v>
-      </c>
-      <c r="B345" t="n">
-        <v>188.1999969482422</v>
-      </c>
-      <c r="C345" t="n">
-        <v>193.3999938964844</v>
-      </c>
-      <c r="D345" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="E345" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="F345" t="n">
-        <v>750796</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>45443</v>
-      </c>
-      <c r="B346" t="n">
-        <v>183.3000030517578</v>
-      </c>
-      <c r="C346" t="n">
-        <v>189.3000030517578</v>
-      </c>
-      <c r="D346" t="n">
-        <v>182.6000061035156</v>
-      </c>
-      <c r="E346" t="n">
-        <v>188.1999969482422</v>
-      </c>
-      <c r="F346" t="n">
-        <v>2070903</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>45446</v>
-      </c>
-      <c r="B347" t="n">
-        <v>191.6000061035156</v>
-      </c>
-      <c r="C347" t="n">
-        <v>194.3000030517578</v>
-      </c>
-      <c r="D347" t="n">
-        <v>187.3500061035156</v>
-      </c>
-      <c r="E347" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="F347" t="n">
-        <v>1654781</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>45447</v>
-      </c>
-      <c r="B348" t="n">
-        <v>181.8999938964844</v>
-      </c>
-      <c r="C348" t="n">
-        <v>192</v>
-      </c>
-      <c r="D348" t="n">
-        <v>176.25</v>
-      </c>
-      <c r="E348" t="n">
-        <v>192</v>
-      </c>
-      <c r="F348" t="n">
-        <v>2733108</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>45448</v>
-      </c>
-      <c r="B349" t="n">
-        <v>185.1000061035156</v>
-      </c>
-      <c r="C349" t="n">
-        <v>188</v>
-      </c>
-      <c r="D349" t="n">
-        <v>177.0500030517578</v>
-      </c>
-      <c r="E349" t="n">
-        <v>184.75</v>
-      </c>
-      <c r="F349" t="n">
-        <v>1079435</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>45449</v>
-      </c>
-      <c r="B350" t="n">
-        <v>189.4499969482422</v>
-      </c>
-      <c r="C350" t="n">
-        <v>193</v>
-      </c>
-      <c r="D350" t="n">
-        <v>187.3000030517578</v>
-      </c>
-      <c r="E350" t="n">
-        <v>187.3000030517578</v>
-      </c>
-      <c r="F350" t="n">
-        <v>794921</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>45450</v>
-      </c>
-      <c r="B351" t="n">
-        <v>196.9499969482422</v>
-      </c>
-      <c r="C351" t="n">
-        <v>204.6000061035156</v>
-      </c>
-      <c r="D351" t="n">
-        <v>191.1499938964844</v>
-      </c>
-      <c r="E351" t="n">
-        <v>191.1499938964844</v>
-      </c>
-      <c r="F351" t="n">
-        <v>7099748</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>45453</v>
-      </c>
-      <c r="B352" t="n">
-        <v>197.9600067138672</v>
-      </c>
-      <c r="C352" t="n">
-        <v>200.3899993896484</v>
-      </c>
-      <c r="D352" t="n">
-        <v>196</v>
-      </c>
-      <c r="E352" t="n">
-        <v>197.0500030517578</v>
-      </c>
-      <c r="F352" t="n">
-        <v>1389514</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>45454</v>
-      </c>
-      <c r="B353" t="n">
-        <v>196.9100036621094</v>
-      </c>
-      <c r="C353" t="n">
-        <v>200.3899993896484</v>
-      </c>
-      <c r="D353" t="n">
-        <v>196.1999969482422</v>
-      </c>
-      <c r="E353" t="n">
-        <v>198.3999938964844</v>
-      </c>
-      <c r="F353" t="n">
-        <v>1162257</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>45455</v>
-      </c>
-      <c r="B354" t="n">
-        <v>199.6799926757812</v>
-      </c>
-      <c r="C354" t="n">
-        <v>200.8999938964844</v>
-      </c>
-      <c r="D354" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="E354" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="F354" t="n">
-        <v>2103607</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>45456</v>
-      </c>
-      <c r="B355" t="n">
-        <v>204.2700042724609</v>
-      </c>
-      <c r="C355" t="n">
-        <v>207.4900054931641</v>
-      </c>
-      <c r="D355" t="n">
-        <v>201.5599975585938</v>
-      </c>
-      <c r="E355" t="n">
-        <v>202.1499938964844</v>
-      </c>
-      <c r="F355" t="n">
-        <v>5581718</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>45457</v>
-      </c>
-      <c r="B356" t="n">
-        <v>203.4100036621094</v>
-      </c>
-      <c r="C356" t="n">
-        <v>207.3999938964844</v>
-      </c>
-      <c r="D356" t="n">
-        <v>202.3899993896484</v>
-      </c>
-      <c r="E356" t="n">
-        <v>205.4799957275391</v>
-      </c>
-      <c r="F356" t="n">
-        <v>1315882</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>45461</v>
-      </c>
-      <c r="B357" t="n">
-        <v>200.0299987792969</v>
-      </c>
-      <c r="C357" t="n">
-        <v>203.6100006103516</v>
-      </c>
-      <c r="D357" t="n">
-        <v>197.2299957275391</v>
-      </c>
-      <c r="E357" t="n">
-        <v>203</v>
-      </c>
-      <c r="F357" t="n">
-        <v>2287985</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>45462</v>
-      </c>
-      <c r="B358" t="n">
-        <v>198.5500030517578</v>
-      </c>
-      <c r="C358" t="n">
-        <v>201.6300048828125</v>
-      </c>
-      <c r="D358" t="n">
-        <v>197.1499938964844</v>
-      </c>
-      <c r="E358" t="n">
-        <v>201.6300048828125</v>
-      </c>
-      <c r="F358" t="n">
-        <v>1124250</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>45463</v>
-      </c>
-      <c r="B359" t="n">
-        <v>201.8399963378906</v>
-      </c>
-      <c r="C359" t="n">
-        <v>203.9499969482422</v>
-      </c>
-      <c r="D359" t="n">
-        <v>198.1499938964844</v>
-      </c>
-      <c r="E359" t="n">
-        <v>200</v>
-      </c>
-      <c r="F359" t="n">
-        <v>1325059</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>45464</v>
-      </c>
-      <c r="B360" t="n">
-        <v>205.8699951171875</v>
-      </c>
-      <c r="C360" t="n">
-        <v>212.3999938964844</v>
-      </c>
-      <c r="D360" t="n">
-        <v>204</v>
-      </c>
-      <c r="E360" t="n">
-        <v>204</v>
-      </c>
-      <c r="F360" t="n">
-        <v>6171658</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="B361" t="n">
-        <v>213.9600067138672</v>
-      </c>
-      <c r="C361" t="n">
-        <v>215</v>
-      </c>
-      <c r="D361" t="n">
-        <v>202.1900024414062</v>
-      </c>
-      <c r="E361" t="n">
-        <v>205.8999938964844</v>
-      </c>
-      <c r="F361" t="n">
-        <v>5919066</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>45468</v>
-      </c>
-      <c r="B362" t="n">
-        <v>212.5700073242188</v>
-      </c>
-      <c r="C362" t="n">
-        <v>217.2299957275391</v>
-      </c>
-      <c r="D362" t="n">
-        <v>211.0700073242188</v>
-      </c>
-      <c r="E362" t="n">
-        <v>216</v>
-      </c>
-      <c r="F362" t="n">
-        <v>3260962</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>45469</v>
-      </c>
-      <c r="B363" t="n">
-        <v>208.9799957275391</v>
-      </c>
-      <c r="C363" t="n">
-        <v>214</v>
-      </c>
-      <c r="D363" t="n">
-        <v>207.9499969482422</v>
-      </c>
-      <c r="E363" t="n">
-        <v>212.6499938964844</v>
-      </c>
-      <c r="F363" t="n">
-        <v>1309277</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="B364" t="n">
-        <v>211.1600036621094</v>
-      </c>
-      <c r="C364" t="n">
-        <v>212.8800048828125</v>
-      </c>
-      <c r="D364" t="n">
-        <v>204.4100036621094</v>
-      </c>
-      <c r="E364" t="n">
-        <v>210</v>
-      </c>
-      <c r="F364" t="n">
-        <v>3051144</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>45471</v>
-      </c>
-      <c r="B365" t="n">
-        <v>209.9600067138672</v>
-      </c>
-      <c r="C365" t="n">
-        <v>215.2799987792969</v>
-      </c>
-      <c r="D365" t="n">
-        <v>207.8099975585938</v>
-      </c>
-      <c r="E365" t="n">
-        <v>213.1000061035156</v>
-      </c>
-      <c r="F365" t="n">
-        <v>1974115</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>45474</v>
-      </c>
-      <c r="B366" t="n">
-        <v>213.9400024414062</v>
-      </c>
-      <c r="C366" t="n">
-        <v>216</v>
-      </c>
-      <c r="D366" t="n">
-        <v>208.4499969482422</v>
-      </c>
-      <c r="E366" t="n">
-        <v>211.5</v>
-      </c>
-      <c r="F366" t="n">
-        <v>2914827</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>45475</v>
-      </c>
-      <c r="B367" t="n">
-        <v>226.3999938964844</v>
-      </c>
-      <c r="C367" t="n">
-        <v>228.8000030517578</v>
-      </c>
-      <c r="D367" t="n">
-        <v>214.6799926757812</v>
-      </c>
-      <c r="E367" t="n">
-        <v>216.6999969482422</v>
-      </c>
-      <c r="F367" t="n">
-        <v>16538957</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>45476</v>
-      </c>
-      <c r="B368" t="n">
-        <v>224.1600036621094</v>
-      </c>
-      <c r="C368" t="n">
-        <v>229.4799957275391</v>
-      </c>
-      <c r="D368" t="n">
-        <v>223.0500030517578</v>
-      </c>
-      <c r="E368" t="n">
-        <v>227.75</v>
-      </c>
-      <c r="F368" t="n">
-        <v>4027880</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>45477</v>
-      </c>
-      <c r="B369" t="n">
-        <v>232.6100006103516</v>
-      </c>
-      <c r="C369" t="n">
-        <v>235</v>
-      </c>
-      <c r="D369" t="n">
-        <v>224.7599945068359</v>
-      </c>
-      <c r="E369" t="n">
-        <v>225.9499969482422</v>
-      </c>
-      <c r="F369" t="n">
-        <v>10384463</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>45478</v>
-      </c>
-      <c r="B370" t="n">
-        <v>235.7100067138672</v>
-      </c>
-      <c r="C370" t="n">
-        <v>249.0899963378906</v>
-      </c>
-      <c r="D370" t="n">
-        <v>233.1100006103516</v>
-      </c>
-      <c r="E370" t="n">
-        <v>234.1000061035156</v>
-      </c>
-      <c r="F370" t="n">
-        <v>12769680</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="B371" t="n">
-        <v>250.1199951171875</v>
-      </c>
-      <c r="C371" t="n">
-        <v>254.6499938964844</v>
-      </c>
-      <c r="D371" t="n">
-        <v>239.1300048828125</v>
-      </c>
-      <c r="E371" t="n">
-        <v>239.1300048828125</v>
-      </c>
-      <c r="F371" t="n">
-        <v>11218038</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="B372" t="n">
-        <v>248.7700042724609</v>
-      </c>
-      <c r="C372" t="n">
-        <v>258.9500122070312</v>
-      </c>
-      <c r="D372" t="n">
-        <v>245.6699981689453</v>
-      </c>
-      <c r="E372" t="n">
-        <v>252.1000061035156</v>
-      </c>
-      <c r="F372" t="n">
-        <v>6776938</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>45483</v>
-      </c>
-      <c r="B373" t="n">
-        <v>239.7899932861328</v>
-      </c>
-      <c r="C373" t="n">
-        <v>248.4499969482422</v>
-      </c>
-      <c r="D373" t="n">
-        <v>236.3000030517578</v>
-      </c>
-      <c r="E373" t="n">
-        <v>247</v>
-      </c>
-      <c r="F373" t="n">
-        <v>4050981</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>45484</v>
-      </c>
-      <c r="B374" t="n">
-        <v>240.1799926757812</v>
-      </c>
-      <c r="C374" t="n">
-        <v>243</v>
-      </c>
-      <c r="D374" t="n">
-        <v>237.8200073242188</v>
-      </c>
-      <c r="E374" t="n">
-        <v>240</v>
-      </c>
-      <c r="F374" t="n">
-        <v>1689077</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>45485</v>
-      </c>
-      <c r="B375" t="n">
-        <v>249.4299926757812</v>
-      </c>
-      <c r="C375" t="n">
-        <v>255.5</v>
-      </c>
-      <c r="D375" t="n">
-        <v>242.6000061035156</v>
-      </c>
-      <c r="E375" t="n">
-        <v>242.6000061035156</v>
-      </c>
-      <c r="F375" t="n">
-        <v>9117863</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>45488</v>
-      </c>
-      <c r="B376" t="n">
-        <v>252.9799957275391</v>
-      </c>
-      <c r="C376" t="n">
-        <v>255</v>
-      </c>
-      <c r="D376" t="n">
-        <v>242.7599945068359</v>
-      </c>
-      <c r="E376" t="n">
-        <v>250.8099975585938</v>
-      </c>
-      <c r="F376" t="n">
-        <v>2601155</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>45489</v>
-      </c>
-      <c r="B377" t="n">
-        <v>254.0099945068359</v>
-      </c>
-      <c r="C377" t="n">
-        <v>256.5</v>
-      </c>
-      <c r="D377" t="n">
-        <v>247</v>
-      </c>
-      <c r="E377" t="n">
-        <v>252.8000030517578</v>
-      </c>
-      <c r="F377" t="n">
-        <v>3210967</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>45491</v>
-      </c>
-      <c r="B378" t="n">
-        <v>245.1600036621094</v>
-      </c>
-      <c r="C378" t="n">
-        <v>258</v>
-      </c>
-      <c r="D378" t="n">
-        <v>244</v>
-      </c>
-      <c r="E378" t="n">
-        <v>250</v>
-      </c>
-      <c r="F378" t="n">
-        <v>3355053</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>45492</v>
-      </c>
-      <c r="B379" t="n">
-        <v>244.6900024414062</v>
-      </c>
-      <c r="C379" t="n">
-        <v>258.5899963378906</v>
-      </c>
-      <c r="D379" t="n">
-        <v>241.6000061035156</v>
-      </c>
-      <c r="E379" t="n">
-        <v>248</v>
-      </c>
-      <c r="F379" t="n">
-        <v>8460052</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>45495</v>
-      </c>
-      <c r="B380" t="n">
-        <v>244.5700073242188</v>
-      </c>
-      <c r="C380" t="n">
-        <v>249.3899993896484</v>
-      </c>
-      <c r="D380" t="n">
-        <v>240.8099975585938</v>
-      </c>
-      <c r="E380" t="n">
-        <v>244.5</v>
-      </c>
-      <c r="F380" t="n">
-        <v>2066923</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>45496</v>
-      </c>
-      <c r="B381" t="n">
-        <v>240.3999938964844</v>
-      </c>
-      <c r="C381" t="n">
-        <v>247.0200042724609</v>
-      </c>
-      <c r="D381" t="n">
-        <v>226.6199951171875</v>
-      </c>
-      <c r="E381" t="n">
-        <v>247.0200042724609</v>
-      </c>
-      <c r="F381" t="n">
-        <v>2472109</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>45497</v>
-      </c>
-      <c r="B382" t="n">
-        <v>247.9600067138672</v>
-      </c>
-      <c r="C382" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="D382" t="n">
-        <v>239.3500061035156</v>
-      </c>
-      <c r="E382" t="n">
-        <v>239.8999938964844</v>
-      </c>
-      <c r="F382" t="n">
-        <v>2225829</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="B383" t="n">
-        <v>247.3800048828125</v>
-      </c>
-      <c r="C383" t="n">
-        <v>248.4700012207031</v>
-      </c>
-      <c r="D383" t="n">
-        <v>243.0200042724609</v>
-      </c>
-      <c r="E383" t="n">
-        <v>245</v>
-      </c>
-      <c r="F383" t="n">
-        <v>915438</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>45499</v>
-      </c>
-      <c r="B384" t="n">
-        <v>256.2699890136719</v>
-      </c>
-      <c r="C384" t="n">
-        <v>262.7999877929688</v>
-      </c>
-      <c r="D384" t="n">
-        <v>246.0500030517578</v>
-      </c>
-      <c r="E384" t="n">
-        <v>249.3500061035156</v>
-      </c>
-      <c r="F384" t="n">
-        <v>7083391</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>45502</v>
-      </c>
-      <c r="B385" t="n">
-        <v>267.1900024414062</v>
-      </c>
-      <c r="C385" t="n">
-        <v>269.25</v>
-      </c>
-      <c r="D385" t="n">
-        <v>257.2000122070312</v>
-      </c>
-      <c r="E385" t="n">
-        <v>258.6000061035156</v>
-      </c>
-      <c r="F385" t="n">
-        <v>5842301</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>45503</v>
-      </c>
-      <c r="B386" t="n">
-        <v>271.2799987792969</v>
-      </c>
-      <c r="C386" t="n">
-        <v>278.9400024414062</v>
-      </c>
-      <c r="D386" t="n">
-        <v>264.6099853515625</v>
-      </c>
-      <c r="E386" t="n">
-        <v>267.6000061035156</v>
-      </c>
-      <c r="F386" t="n">
-        <v>10929219</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>45504</v>
-      </c>
-      <c r="B387" t="n">
-        <v>273.4400024414062</v>
-      </c>
-      <c r="C387" t="n">
-        <v>275.75</v>
-      </c>
-      <c r="D387" t="n">
-        <v>269.3500061035156</v>
-      </c>
-      <c r="E387" t="n">
-        <v>275</v>
-      </c>
-      <c r="F387" t="n">
-        <v>3279980</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>45505</v>
-      </c>
-      <c r="B388" t="n">
-        <v>301</v>
-      </c>
-      <c r="C388" t="n">
-        <v>309.2999877929688</v>
-      </c>
-      <c r="D388" t="n">
-        <v>273.3999938964844</v>
-      </c>
-      <c r="E388" t="n">
-        <v>275</v>
-      </c>
-      <c r="F388" t="n">
-        <v>60241210</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="B389" t="n">
-        <v>297.3500061035156</v>
-      </c>
-      <c r="C389" t="n">
-        <v>300.6000061035156</v>
-      </c>
-      <c r="D389" t="n">
-        <v>291.1000061035156</v>
-      </c>
-      <c r="E389" t="n">
-        <v>296</v>
-      </c>
-      <c r="F389" t="n">
-        <v>7585463</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B390" t="n">
-        <v>275.5499877929688</v>
-      </c>
-      <c r="C390" t="n">
-        <v>290.8999938964844</v>
-      </c>
-      <c r="D390" t="n">
-        <v>272.25</v>
-      </c>
-      <c r="E390" t="n">
-        <v>283</v>
-      </c>
-      <c r="F390" t="n">
-        <v>6922982</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>45510</v>
-      </c>
-      <c r="B391" t="n">
-        <v>290.1000061035156</v>
-      </c>
-      <c r="C391" t="n">
-        <v>317.8999938964844</v>
-      </c>
-      <c r="D391" t="n">
-        <v>281</v>
-      </c>
-      <c r="E391" t="n">
-        <v>281</v>
-      </c>
-      <c r="F391" t="n">
-        <v>49846364</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>45511</v>
-      </c>
-      <c r="B392" t="n">
-        <v>288.75</v>
-      </c>
-      <c r="C392" t="n">
-        <v>302.7999877929688</v>
-      </c>
-      <c r="D392" t="n">
-        <v>284.3500061035156</v>
-      </c>
-      <c r="E392" t="n">
-        <v>296</v>
-      </c>
-      <c r="F392" t="n">
-        <v>9989363</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>45512</v>
-      </c>
-      <c r="B393" t="n">
-        <v>283.2999877929688</v>
-      </c>
-      <c r="C393" t="n">
-        <v>295.5499877929688</v>
-      </c>
-      <c r="D393" t="n">
-        <v>282.2000122070312</v>
-      </c>
-      <c r="E393" t="n">
-        <v>288.7999877929688</v>
-      </c>
-      <c r="F393" t="n">
-        <v>4674985</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>45513</v>
-      </c>
-      <c r="B394" t="n">
-        <v>284.3500061035156</v>
-      </c>
-      <c r="C394" t="n">
-        <v>289.6499938964844</v>
-      </c>
-      <c r="D394" t="n">
-        <v>282.3999938964844</v>
-      </c>
-      <c r="E394" t="n">
-        <v>285.7999877929688</v>
-      </c>
-      <c r="F394" t="n">
-        <v>2748009</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>45516</v>
-      </c>
-      <c r="B395" t="n">
-        <v>285.7000122070312</v>
-      </c>
-      <c r="C395" t="n">
-        <v>287.3999938964844</v>
-      </c>
-      <c r="D395" t="n">
-        <v>280.0499877929688</v>
-      </c>
-      <c r="E395" t="n">
-        <v>282.8500061035156</v>
-      </c>
-      <c r="F395" t="n">
-        <v>2586221</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>45517</v>
-      </c>
-      <c r="B396" t="n">
-        <v>277</v>
-      </c>
-      <c r="C396" t="n">
-        <v>292.9500122070312</v>
-      </c>
-      <c r="D396" t="n">
-        <v>275.1000061035156</v>
-      </c>
-      <c r="E396" t="n">
-        <v>284.1000061035156</v>
-      </c>
-      <c r="F396" t="n">
-        <v>3511245</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>45518</v>
-      </c>
-      <c r="B397" t="n">
-        <v>290.3999938964844</v>
-      </c>
-      <c r="C397" t="n">
-        <v>293</v>
-      </c>
-      <c r="D397" t="n">
-        <v>276</v>
-      </c>
-      <c r="E397" t="n">
-        <v>276.6499938964844</v>
-      </c>
-      <c r="F397" t="n">
-        <v>7122393</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>45520</v>
-      </c>
-      <c r="B398" t="n">
-        <v>307.7000122070312</v>
-      </c>
-      <c r="C398" t="n">
-        <v>325</v>
-      </c>
-      <c r="D398" t="n">
-        <v>296.25</v>
-      </c>
-      <c r="E398" t="n">
-        <v>298</v>
-      </c>
-      <c r="F398" t="n">
-        <v>38575796</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>45523</v>
-      </c>
-      <c r="B399" t="n">
-        <v>337.3500061035156</v>
-      </c>
-      <c r="C399" t="n">
-        <v>343.8999938964844</v>
-      </c>
-      <c r="D399" t="n">
-        <v>305.5499877929688</v>
-      </c>
-      <c r="E399" t="n">
-        <v>310.5</v>
-      </c>
-      <c r="F399" t="n">
-        <v>36747256</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>45524</v>
-      </c>
-      <c r="B400" t="n">
-        <v>321.1000061035156</v>
-      </c>
-      <c r="C400" t="n">
-        <v>343.7000122070312</v>
-      </c>
-      <c r="D400" t="n">
-        <v>319.1000061035156</v>
-      </c>
-      <c r="E400" t="n">
-        <v>340</v>
-      </c>
-      <c r="F400" t="n">
-        <v>14747418</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>45525</v>
-      </c>
-      <c r="B401" t="n">
-        <v>327.1499938964844</v>
-      </c>
-      <c r="C401" t="n">
-        <v>329.7000122070312</v>
-      </c>
-      <c r="D401" t="n">
-        <v>317.1499938964844</v>
-      </c>
-      <c r="E401" t="n">
-        <v>322.1499938964844</v>
-      </c>
-      <c r="F401" t="n">
-        <v>7259868</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>45526</v>
-      </c>
-      <c r="B402" t="n">
-        <v>317.9500122070312</v>
-      </c>
-      <c r="C402" t="n">
-        <v>329.8999938964844</v>
-      </c>
-      <c r="D402" t="n">
-        <v>315.2999877929688</v>
-      </c>
-      <c r="E402" t="n">
-        <v>328.9500122070312</v>
-      </c>
-      <c r="F402" t="n">
-        <v>4263591</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="B403" t="n">
-        <v>323.3500061035156</v>
-      </c>
-      <c r="C403" t="n">
-        <v>331</v>
-      </c>
-      <c r="D403" t="n">
-        <v>308.1000061035156</v>
-      </c>
-      <c r="E403" t="n">
-        <v>317.9500122070312</v>
-      </c>
-      <c r="F403" t="n">
-        <v>11079086</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="B404" t="n">
-        <v>315.2999877929688</v>
-      </c>
-      <c r="C404" t="n">
-        <v>324.6499938964844</v>
-      </c>
-      <c r="D404" t="n">
-        <v>313.3500061035156</v>
-      </c>
-      <c r="E404" t="n">
-        <v>324.3999938964844</v>
-      </c>
-      <c r="F404" t="n">
-        <v>4686613</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="B405" t="n">
-        <v>308.6000061035156</v>
-      </c>
-      <c r="C405" t="n">
-        <v>318.25</v>
-      </c>
-      <c r="D405" t="n">
-        <v>307.25</v>
-      </c>
-      <c r="E405" t="n">
-        <v>315.8500061035156</v>
-      </c>
-      <c r="F405" t="n">
-        <v>4889548</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="B406" t="n">
-        <v>305.9500122070312</v>
-      </c>
-      <c r="C406" t="n">
-        <v>313.7000122070312</v>
-      </c>
-      <c r="D406" t="n">
-        <v>305</v>
-      </c>
-      <c r="E406" t="n">
-        <v>310</v>
-      </c>
-      <c r="F406" t="n">
-        <v>4657442</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="B407" t="n">
-        <v>308.8500061035156</v>
-      </c>
-      <c r="C407" t="n">
-        <v>319.8999938964844</v>
-      </c>
-      <c r="D407" t="n">
-        <v>306.1000061035156</v>
-      </c>
-      <c r="E407" t="n">
-        <v>307.0499877929688</v>
-      </c>
-      <c r="F407" t="n">
-        <v>7855487</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>45534</v>
-      </c>
-      <c r="B408" t="n">
-        <v>303.25</v>
-      </c>
-      <c r="C408" t="n">
-        <v>316.5</v>
-      </c>
-      <c r="D408" t="n">
-        <v>301.1000061035156</v>
-      </c>
-      <c r="E408" t="n">
-        <v>311.75</v>
-      </c>
-      <c r="F408" t="n">
-        <v>5133515</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>45537</v>
-      </c>
-      <c r="B409" t="n">
-        <v>315.0499877929688</v>
-      </c>
-      <c r="C409" t="n">
-        <v>322.75</v>
-      </c>
-      <c r="D409" t="n">
-        <v>300.6000061035156</v>
-      </c>
-      <c r="E409" t="n">
-        <v>304.6499938964844</v>
-      </c>
-      <c r="F409" t="n">
-        <v>20133902</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>45538</v>
-      </c>
-      <c r="B410" t="n">
-        <v>312.1499938964844</v>
-      </c>
-      <c r="C410" t="n">
-        <v>320.8999938964844</v>
-      </c>
-      <c r="D410" t="n">
-        <v>310.0499877929688</v>
-      </c>
-      <c r="E410" t="n">
-        <v>316.2999877929688</v>
-      </c>
-      <c r="F410" t="n">
-        <v>4950500</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>45539</v>
-      </c>
-      <c r="B411" t="n">
-        <v>313.0499877929688</v>
-      </c>
-      <c r="C411" t="n">
-        <v>321</v>
-      </c>
-      <c r="D411" t="n">
-        <v>305.7999877929688</v>
-      </c>
-      <c r="E411" t="n">
-        <v>308</v>
-      </c>
-      <c r="F411" t="n">
-        <v>4675386</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>45540</v>
-      </c>
-      <c r="B412" t="n">
-        <v>319.6499938964844</v>
-      </c>
-      <c r="C412" t="n">
-        <v>325.5</v>
-      </c>
-      <c r="D412" t="n">
-        <v>313.9500122070312</v>
-      </c>
-      <c r="E412" t="n">
-        <v>313.9500122070312</v>
-      </c>
-      <c r="F412" t="n">
-        <v>7401803</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>45541</v>
-      </c>
-      <c r="B413" t="n">
-        <v>315.5</v>
-      </c>
-      <c r="C413" t="n">
-        <v>324</v>
-      </c>
-      <c r="D413" t="n">
-        <v>313.1499938964844</v>
-      </c>
-      <c r="E413" t="n">
-        <v>320</v>
-      </c>
-      <c r="F413" t="n">
-        <v>3855504</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>45544</v>
-      </c>
-      <c r="B414" t="n">
-        <v>310.7999877929688</v>
-      </c>
-      <c r="C414" t="n">
-        <v>318.7000122070312</v>
-      </c>
-      <c r="D414" t="n">
-        <v>307.8500061035156</v>
-      </c>
-      <c r="E414" t="n">
-        <v>315.6499938964844</v>
-      </c>
-      <c r="F414" t="n">
-        <v>3177576</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>45545</v>
-      </c>
-      <c r="B415" t="n">
-        <v>328.75</v>
-      </c>
-      <c r="C415" t="n">
-        <v>330.9500122070312</v>
-      </c>
-      <c r="D415" t="n">
-        <v>312.4500122070312</v>
-      </c>
-      <c r="E415" t="n">
-        <v>312.4500122070312</v>
-      </c>
-      <c r="F415" t="n">
-        <v>9365308</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>45546</v>
-      </c>
-      <c r="B416" t="n">
-        <v>319.3500061035156</v>
-      </c>
-      <c r="C416" t="n">
-        <v>333.1000061035156</v>
-      </c>
-      <c r="D416" t="n">
-        <v>317</v>
-      </c>
-      <c r="E416" t="n">
-        <v>328</v>
-      </c>
-      <c r="F416" t="n">
-        <v>4497233</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>45547</v>
-      </c>
-      <c r="B417" t="n">
-        <v>318.4500122070312</v>
-      </c>
-      <c r="C417" t="n">
-        <v>332.7000122070312</v>
-      </c>
-      <c r="D417" t="n">
-        <v>312.6499938964844</v>
-      </c>
-      <c r="E417" t="n">
-        <v>322.8999938964844</v>
-      </c>
-      <c r="F417" t="n">
-        <v>4911267</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>45548</v>
-      </c>
-      <c r="B418" t="n">
-        <v>311.0499877929688</v>
-      </c>
-      <c r="C418" t="n">
-        <v>320.3500061035156</v>
-      </c>
-      <c r="D418" t="n">
-        <v>308.1499938964844</v>
-      </c>
-      <c r="E418" t="n">
-        <v>320.2999877929688</v>
-      </c>
-      <c r="F418" t="n">
-        <v>2880956</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B419" t="n">
-        <v>307.7000122070312</v>
-      </c>
-      <c r="C419" t="n">
-        <v>312.8999938964844</v>
-      </c>
-      <c r="D419" t="n">
-        <v>302.3999938964844</v>
-      </c>
-      <c r="E419" t="n">
-        <v>312</v>
-      </c>
-      <c r="F419" t="n">
-        <v>3050107</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>45552</v>
-      </c>
-      <c r="B420" t="n">
-        <v>309.3999938964844</v>
-      </c>
-      <c r="C420" t="n">
-        <v>318.5</v>
-      </c>
-      <c r="D420" t="n">
-        <v>307.7000122070312</v>
-      </c>
-      <c r="E420" t="n">
-        <v>318</v>
-      </c>
-      <c r="F420" t="n">
-        <v>5859139</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>45553</v>
-      </c>
-      <c r="B421" t="n">
-        <v>301.9500122070312</v>
-      </c>
-      <c r="C421" t="n">
-        <v>310.5</v>
-      </c>
-      <c r="D421" t="n">
-        <v>294.5</v>
-      </c>
-      <c r="E421" t="n">
-        <v>308.7999877929688</v>
-      </c>
-      <c r="F421" t="n">
-        <v>3555057</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>45554</v>
-      </c>
-      <c r="B422" t="n">
-        <v>308.4500122070312</v>
-      </c>
-      <c r="C422" t="n">
-        <v>315</v>
-      </c>
-      <c r="D422" t="n">
-        <v>303</v>
-      </c>
-      <c r="E422" t="n">
-        <v>306</v>
-      </c>
-      <c r="F422" t="n">
-        <v>10896103</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>45555</v>
-      </c>
-      <c r="B423" t="n">
-        <v>311.2999877929688</v>
-      </c>
-      <c r="C423" t="n">
-        <v>318.8999938964844</v>
-      </c>
-      <c r="D423" t="n">
-        <v>307.25</v>
-      </c>
-      <c r="E423" t="n">
-        <v>310.5</v>
-      </c>
-      <c r="F423" t="n">
-        <v>6255046</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B424" t="n">
-        <v>314.6499938964844</v>
-      </c>
-      <c r="C424" t="n">
-        <v>316.3999938964844</v>
-      </c>
-      <c r="D424" t="n">
-        <v>310</v>
-      </c>
-      <c r="E424" t="n">
-        <v>312.75</v>
-      </c>
-      <c r="F424" t="n">
-        <v>2187606</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>45559</v>
-      </c>
-      <c r="B425" t="n">
-        <v>333.5</v>
-      </c>
-      <c r="C425" t="n">
-        <v>339</v>
-      </c>
-      <c r="D425" t="n">
-        <v>318.3500061035156</v>
-      </c>
-      <c r="E425" t="n">
-        <v>322</v>
-      </c>
-      <c r="F425" t="n">
-        <v>31733865</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>45560</v>
-      </c>
-      <c r="B426" t="n">
-        <v>342.4500122070312</v>
-      </c>
-      <c r="C426" t="n">
-        <v>345</v>
-      </c>
-      <c r="D426" t="n">
-        <v>330.75</v>
-      </c>
-      <c r="E426" t="n">
-        <v>335.3500061035156</v>
-      </c>
-      <c r="F426" t="n">
-        <v>11074909</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>45561</v>
-      </c>
-      <c r="B427" t="n">
-        <v>329.4500122070312</v>
-      </c>
-      <c r="C427" t="n">
-        <v>343.5</v>
-      </c>
-      <c r="D427" t="n">
-        <v>327</v>
-      </c>
-      <c r="E427" t="n">
-        <v>343.4500122070312</v>
-      </c>
-      <c r="F427" t="n">
-        <v>5359842</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>45562</v>
-      </c>
-      <c r="B428" t="n">
-        <v>319.2999877929688</v>
-      </c>
-      <c r="C428" t="n">
-        <v>336.5499877929688</v>
-      </c>
-      <c r="D428" t="n">
-        <v>316.1000061035156</v>
-      </c>
-      <c r="E428" t="n">
-        <v>331.75</v>
-      </c>
-      <c r="F428" t="n">
-        <v>5090032</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B429" t="n">
-        <v>311.1499938964844</v>
-      </c>
-      <c r="C429" t="n">
-        <v>319.0499877929688</v>
-      </c>
-      <c r="D429" t="n">
-        <v>308.9500122070312</v>
-      </c>
-      <c r="E429" t="n">
-        <v>319</v>
-      </c>
-      <c r="F429" t="n">
-        <v>3810638</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B430" t="n">
-        <v>312.2999877929688</v>
-      </c>
-      <c r="C430" t="n">
-        <v>316.2999877929688</v>
-      </c>
-      <c r="D430" t="n">
-        <v>310.25</v>
-      </c>
-      <c r="E430" t="n">
-        <v>312.4500122070312</v>
-      </c>
-      <c r="F430" t="n">
-        <v>1892861</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>45568</v>
-      </c>
-      <c r="B431" t="n">
-        <v>307.3500061035156</v>
-      </c>
-      <c r="C431" t="n">
-        <v>312.8500061035156</v>
-      </c>
-      <c r="D431" t="n">
-        <v>302.2999877929688</v>
-      </c>
-      <c r="E431" t="n">
-        <v>306.1000061035156</v>
-      </c>
-      <c r="F431" t="n">
-        <v>2564525</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>45569</v>
-      </c>
-      <c r="B432" t="n">
-        <v>303.9500122070312</v>
-      </c>
-      <c r="C432" t="n">
-        <v>311.6000061035156</v>
-      </c>
-      <c r="D432" t="n">
-        <v>302.3500061035156</v>
-      </c>
-      <c r="E432" t="n">
-        <v>308.25</v>
-      </c>
-      <c r="F432" t="n">
-        <v>3512359</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>45572</v>
-      </c>
-      <c r="B433" t="n">
-        <v>299.2999877929688</v>
-      </c>
-      <c r="C433" t="n">
-        <v>312.2999877929688</v>
-      </c>
-      <c r="D433" t="n">
-        <v>295.0499877929688</v>
-      </c>
-      <c r="E433" t="n">
-        <v>305.6499938964844</v>
-      </c>
-      <c r="F433" t="n">
-        <v>5976238</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>45573</v>
-      </c>
-      <c r="B434" t="n">
-        <v>316.4500122070312</v>
-      </c>
-      <c r="C434" t="n">
-        <v>319.6000061035156</v>
-      </c>
-      <c r="D434" t="n">
-        <v>298.8500061035156</v>
-      </c>
-      <c r="E434" t="n">
-        <v>299.2999877929688</v>
-      </c>
-      <c r="F434" t="n">
-        <v>3492386</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>45574</v>
-      </c>
-      <c r="B435" t="n">
-        <v>313.6000061035156</v>
-      </c>
-      <c r="C435" t="n">
-        <v>322.3999938964844</v>
-      </c>
-      <c r="D435" t="n">
-        <v>312.6499938964844</v>
-      </c>
-      <c r="E435" t="n">
-        <v>318.9500122070312</v>
-      </c>
-      <c r="F435" t="n">
-        <v>2390274</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>45575</v>
-      </c>
-      <c r="B436" t="n">
-        <v>310.2000122070312</v>
-      </c>
-      <c r="C436" t="n">
-        <v>317.75</v>
-      </c>
-      <c r="D436" t="n">
-        <v>308</v>
-      </c>
-      <c r="E436" t="n">
-        <v>314.9500122070312</v>
-      </c>
-      <c r="F436" t="n">
-        <v>1423594</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>45576</v>
-      </c>
-      <c r="B437" t="n">
-        <v>316</v>
-      </c>
-      <c r="C437" t="n">
-        <v>319.7999877929688</v>
-      </c>
-      <c r="D437" t="n">
-        <v>307.9500122070312</v>
-      </c>
-      <c r="E437" t="n">
-        <v>308.5</v>
-      </c>
-      <c r="F437" t="n">
-        <v>2541521</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>45579</v>
-      </c>
-      <c r="B438" t="n">
-        <v>318</v>
-      </c>
-      <c r="C438" t="n">
-        <v>321.5</v>
-      </c>
-      <c r="D438" t="n">
-        <v>313.2000122070312</v>
-      </c>
-      <c r="E438" t="n">
-        <v>316.6000061035156</v>
-      </c>
-      <c r="F438" t="n">
-        <v>1227465</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>45580</v>
-      </c>
-      <c r="B439" t="n">
-        <v>336.5</v>
-      </c>
-      <c r="C439" t="n">
-        <v>339.5</v>
-      </c>
-      <c r="D439" t="n">
-        <v>318.3999938964844</v>
-      </c>
-      <c r="E439" t="n">
-        <v>320.0499877929688</v>
-      </c>
-      <c r="F439" t="n">
-        <v>8044516</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>45581</v>
-      </c>
-      <c r="B440" t="n">
-        <v>337.4500122070312</v>
-      </c>
-      <c r="C440" t="n">
-        <v>339.8999938964844</v>
-      </c>
-      <c r="D440" t="n">
-        <v>328.3500061035156</v>
-      </c>
-      <c r="E440" t="n">
-        <v>335</v>
-      </c>
-      <c r="F440" t="n">
-        <v>2732851</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>45582</v>
-      </c>
-      <c r="B441" t="n">
-        <v>338.2000122070312</v>
-      </c>
-      <c r="C441" t="n">
-        <v>346.6000061035156</v>
-      </c>
-      <c r="D441" t="n">
-        <v>328.6000061035156</v>
-      </c>
-      <c r="E441" t="n">
-        <v>337.4500122070312</v>
-      </c>
-      <c r="F441" t="n">
-        <v>5416577</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>45583</v>
-      </c>
-      <c r="B442" t="n">
-        <v>331.8999938964844</v>
-      </c>
-      <c r="C442" t="n">
-        <v>336.3500061035156</v>
-      </c>
-      <c r="D442" t="n">
-        <v>325</v>
-      </c>
-      <c r="E442" t="n">
-        <v>331</v>
-      </c>
-      <c r="F442" t="n">
-        <v>2823953</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>45586</v>
-      </c>
-      <c r="B443" t="n">
-        <v>327.6499938964844</v>
-      </c>
-      <c r="C443" t="n">
-        <v>339.2000122070312</v>
-      </c>
-      <c r="D443" t="n">
-        <v>325.0499877929688</v>
-      </c>
-      <c r="E443" t="n">
-        <v>331.8999938964844</v>
-      </c>
-      <c r="F443" t="n">
-        <v>2458773</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>45587</v>
-      </c>
-      <c r="B444" t="n">
-        <v>313.1499938964844</v>
-      </c>
-      <c r="C444" t="n">
-        <v>331.5</v>
-      </c>
-      <c r="D444" t="n">
-        <v>310.1000061035156</v>
-      </c>
-      <c r="E444" t="n">
-        <v>328.7000122070312</v>
-      </c>
-      <c r="F444" t="n">
-        <v>3468135</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>45588</v>
-      </c>
-      <c r="B445" t="n">
-        <v>350.8999938964844</v>
-      </c>
-      <c r="C445" t="n">
-        <v>362</v>
-      </c>
-      <c r="D445" t="n">
-        <v>312.5499877929688</v>
-      </c>
-      <c r="E445" t="n">
-        <v>317</v>
-      </c>
-      <c r="F445" t="n">
-        <v>27757764</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>45589</v>
-      </c>
-      <c r="B446" t="n">
-        <v>332.9500122070312</v>
-      </c>
-      <c r="C446" t="n">
-        <v>350.6499938964844</v>
-      </c>
-      <c r="D446" t="n">
-        <v>330.1000061035156</v>
-      </c>
-      <c r="E446" t="n">
-        <v>340</v>
-      </c>
-      <c r="F446" t="n">
-        <v>8642381</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>45590</v>
-      </c>
-      <c r="B447" t="n">
-        <v>332.6499938964844</v>
-      </c>
-      <c r="C447" t="n">
-        <v>339.1000061035156</v>
-      </c>
-      <c r="D447" t="n">
-        <v>328.1000061035156</v>
-      </c>
-      <c r="E447" t="n">
-        <v>333</v>
-      </c>
-      <c r="F447" t="n">
-        <v>5285693</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>45593</v>
-      </c>
-      <c r="B448" t="n">
-        <v>372.5499877929688</v>
-      </c>
-      <c r="C448" t="n">
-        <v>378</v>
-      </c>
-      <c r="D448" t="n">
-        <v>328.6000061035156</v>
-      </c>
-      <c r="E448" t="n">
-        <v>333.75</v>
-      </c>
-      <c r="F448" t="n">
-        <v>25947633</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>45594</v>
-      </c>
-      <c r="B449" t="n">
-        <v>343.2999877929688</v>
-      </c>
-      <c r="C449" t="n">
-        <v>373</v>
-      </c>
-      <c r="D449" t="n">
-        <v>340.8500061035156</v>
-      </c>
-      <c r="E449" t="n">
-        <v>369.4500122070312</v>
-      </c>
-      <c r="F449" t="n">
-        <v>15422573</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>45595</v>
-      </c>
-      <c r="B450" t="n">
-        <v>338.2999877929688</v>
-      </c>
-      <c r="C450" t="n">
-        <v>346.2000122070312</v>
-      </c>
-      <c r="D450" t="n">
-        <v>326.1000061035156</v>
-      </c>
-      <c r="E450" t="n">
-        <v>344.4500122070312</v>
-      </c>
-      <c r="F450" t="n">
-        <v>11329614</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B451" t="n">
-        <v>340.2000122070312</v>
-      </c>
-      <c r="C451" t="n">
-        <v>346.3999938964844</v>
-      </c>
-      <c r="D451" t="n">
-        <v>337.3999938964844</v>
-      </c>
-      <c r="E451" t="n">
-        <v>339.4500122070312</v>
-      </c>
-      <c r="F451" t="n">
-        <v>5407085</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B452" t="n">
-        <v>339.4500122070312</v>
-      </c>
-      <c r="C452" t="n">
-        <v>344.6499938964844</v>
-      </c>
-      <c r="D452" t="n">
-        <v>337.1000061035156</v>
-      </c>
-      <c r="E452" t="n">
-        <v>343.7000122070312</v>
-      </c>
-      <c r="F452" t="n">
-        <v>542216</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B453" t="n">
-        <v>359.1499938964844</v>
-      </c>
-      <c r="C453" t="n">
-        <v>362</v>
-      </c>
-      <c r="D453" t="n">
-        <v>334.8999938964844</v>
-      </c>
-      <c r="E453" t="n">
-        <v>338</v>
-      </c>
-      <c r="F453" t="n">
-        <v>17288617</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>45601</v>
-      </c>
-      <c r="B454" t="n">
-        <v>369.7999877929688</v>
-      </c>
-      <c r="C454" t="n">
-        <v>373.6000061035156</v>
-      </c>
-      <c r="D454" t="n">
-        <v>353.3500061035156</v>
-      </c>
-      <c r="E454" t="n">
-        <v>356.8500061035156</v>
-      </c>
-      <c r="F454" t="n">
-        <v>14996652</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>45602</v>
-      </c>
-      <c r="B455" t="n">
-        <v>380.4500122070312</v>
-      </c>
-      <c r="C455" t="n">
-        <v>388.8999938964844</v>
-      </c>
-      <c r="D455" t="n">
-        <v>359.3999938964844</v>
-      </c>
-      <c r="E455" t="n">
-        <v>371</v>
-      </c>
-      <c r="F455" t="n">
-        <v>13471973</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>45603</v>
-      </c>
-      <c r="B456" t="n">
-        <v>380.9500122070312</v>
-      </c>
-      <c r="C456" t="n">
-        <v>390.8500061035156</v>
-      </c>
-      <c r="D456" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="E456" t="n">
-        <v>381.7000122070312</v>
-      </c>
-      <c r="F456" t="n">
-        <v>10180165</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>45604</v>
-      </c>
-      <c r="B457" t="n">
-        <v>368.0499877929688</v>
-      </c>
-      <c r="C457" t="n">
-        <v>382.5499877929688</v>
-      </c>
-      <c r="D457" t="n">
-        <v>366</v>
-      </c>
-      <c r="E457" t="n">
-        <v>380.8999938964844</v>
-      </c>
-      <c r="F457" t="n">
-        <v>3674242</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B458" t="n">
-        <v>358.6000061035156</v>
-      </c>
-      <c r="C458" t="n">
-        <v>368.75</v>
-      </c>
-      <c r="D458" t="n">
-        <v>357.2000122070312</v>
-      </c>
-      <c r="E458" t="n">
-        <v>367.0499877929688</v>
-      </c>
-      <c r="F458" t="n">
-        <v>3284480</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>45608</v>
-      </c>
-      <c r="B459" t="n">
-        <v>356.75</v>
-      </c>
-      <c r="C459" t="n">
-        <v>383.4500122070312</v>
-      </c>
-      <c r="D459" t="n">
-        <v>354.1000061035156</v>
-      </c>
-      <c r="E459" t="n">
-        <v>360</v>
-      </c>
-      <c r="F459" t="n">
-        <v>13764343</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>45609</v>
-      </c>
-      <c r="B460" t="n">
-        <v>349.4500122070312</v>
-      </c>
-      <c r="C460" t="n">
-        <v>360</v>
-      </c>
-      <c r="D460" t="n">
-        <v>346.4500122070312</v>
-      </c>
-      <c r="E460" t="n">
-        <v>356.75</v>
-      </c>
-      <c r="F460" t="n">
-        <v>4380015</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>45610</v>
-      </c>
-      <c r="B461" t="n">
-        <v>340.1499938964844</v>
-      </c>
-      <c r="C461" t="n">
-        <v>363.2000122070312</v>
-      </c>
-      <c r="D461" t="n">
-        <v>337.7000122070312</v>
-      </c>
-      <c r="E461" t="n">
-        <v>352.5</v>
-      </c>
-      <c r="F461" t="n">
-        <v>5104224</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B462" t="n">
-        <v>339.1000061035156</v>
-      </c>
-      <c r="C462" t="n">
-        <v>347.9500122070312</v>
-      </c>
-      <c r="D462" t="n">
-        <v>335.1499938964844</v>
-      </c>
-      <c r="E462" t="n">
-        <v>341.3500061035156</v>
-      </c>
-      <c r="F462" t="n">
-        <v>3176631</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>45615</v>
-      </c>
-      <c r="B463" t="n">
-        <v>339.8999938964844</v>
-      </c>
-      <c r="C463" t="n">
-        <v>352.0499877929688</v>
-      </c>
-      <c r="D463" t="n">
-        <v>337.5</v>
-      </c>
-      <c r="E463" t="n">
-        <v>340.0499877929688</v>
-      </c>
-      <c r="F463" t="n">
-        <v>3080925</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>45617</v>
-      </c>
-      <c r="B464" t="n">
-        <v>339.4500122070312</v>
-      </c>
-      <c r="C464" t="n">
-        <v>350.1499938964844</v>
-      </c>
-      <c r="D464" t="n">
-        <v>334.6499938964844</v>
-      </c>
-      <c r="E464" t="n">
-        <v>340.2999877929688</v>
-      </c>
-      <c r="F464" t="n">
-        <v>2884362</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>45618</v>
-      </c>
-      <c r="B465" t="n">
-        <v>344.3999938964844</v>
-      </c>
-      <c r="C465" t="n">
-        <v>347.0499877929688</v>
-      </c>
-      <c r="D465" t="n">
-        <v>337.2000122070312</v>
-      </c>
-      <c r="E465" t="n">
-        <v>343.1000061035156</v>
-      </c>
-      <c r="F465" t="n">
-        <v>2504331</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B466" t="n">
-        <v>356.3999938964844</v>
-      </c>
-      <c r="C466" t="n">
-        <v>361</v>
-      </c>
-      <c r="D466" t="n">
-        <v>352</v>
-      </c>
-      <c r="E466" t="n">
-        <v>353</v>
-      </c>
-      <c r="F466" t="n">
-        <v>4020988</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>45622</v>
-      </c>
-      <c r="B467" t="n">
-        <v>358.2999877929688</v>
-      </c>
-      <c r="C467" t="n">
-        <v>368.9500122070312</v>
-      </c>
-      <c r="D467" t="n">
-        <v>356.5499877929688</v>
-      </c>
-      <c r="E467" t="n">
-        <v>359.75</v>
-      </c>
-      <c r="F467" t="n">
-        <v>3327198</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>45623</v>
-      </c>
-      <c r="B468" t="n">
-        <v>361.9500122070312</v>
-      </c>
-      <c r="C468" t="n">
-        <v>363.9500122070312</v>
-      </c>
-      <c r="D468" t="n">
-        <v>356.6000061035156</v>
-      </c>
-      <c r="E468" t="n">
-        <v>361.7999877929688</v>
-      </c>
-      <c r="F468" t="n">
-        <v>1606542</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>45624</v>
-      </c>
-      <c r="B469" t="n">
-        <v>360.8500061035156</v>
-      </c>
-      <c r="C469" t="n">
-        <v>365.6000061035156</v>
-      </c>
-      <c r="D469" t="n">
-        <v>358.7000122070312</v>
-      </c>
-      <c r="E469" t="n">
-        <v>364.5</v>
-      </c>
-      <c r="F469" t="n">
-        <v>1475124</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>45625</v>
-      </c>
-      <c r="B470" t="n">
-        <v>366.7000122070312</v>
-      </c>
-      <c r="C470" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="D470" t="n">
-        <v>358.2999877929688</v>
-      </c>
-      <c r="E470" t="n">
-        <v>362</v>
-      </c>
-      <c r="F470" t="n">
-        <v>4512440</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B471" t="n">
-        <v>365.8999938964844</v>
-      </c>
-      <c r="C471" t="n">
-        <v>372</v>
-      </c>
-      <c r="D471" t="n">
-        <v>361.7999877929688</v>
-      </c>
-      <c r="E471" t="n">
-        <v>366</v>
-      </c>
-      <c r="F471" t="n">
-        <v>1680717</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>45629</v>
-      </c>
-      <c r="B472" t="n">
-        <v>368.6000061035156</v>
-      </c>
-      <c r="C472" t="n">
-        <v>376.7000122070312</v>
-      </c>
-      <c r="D472" t="n">
-        <v>365.5</v>
-      </c>
-      <c r="E472" t="n">
-        <v>366.5499877929688</v>
-      </c>
-      <c r="F472" t="n">
-        <v>3457379</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>45630</v>
-      </c>
-      <c r="B473" t="n">
-        <v>372.7000122070312</v>
-      </c>
-      <c r="C473" t="n">
-        <v>375.9500122070312</v>
-      </c>
-      <c r="D473" t="n">
-        <v>367</v>
-      </c>
-      <c r="E473" t="n">
-        <v>369.9500122070312</v>
-      </c>
-      <c r="F473" t="n">
-        <v>2673802</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>45631</v>
-      </c>
-      <c r="B474" t="n">
-        <v>375.8500061035156</v>
-      </c>
-      <c r="C474" t="n">
-        <v>381.2000122070312</v>
-      </c>
-      <c r="D474" t="n">
-        <v>370.3999938964844</v>
-      </c>
-      <c r="E474" t="n">
-        <v>374</v>
-      </c>
-      <c r="F474" t="n">
-        <v>3298962</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>45632</v>
-      </c>
-      <c r="B475" t="n">
-        <v>375.7999877929688</v>
-      </c>
-      <c r="C475" t="n">
-        <v>378</v>
-      </c>
-      <c r="D475" t="n">
-        <v>368.0499877929688</v>
-      </c>
-      <c r="E475" t="n">
-        <v>375.8500061035156</v>
-      </c>
-      <c r="F475" t="n">
-        <v>2546906</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B476" t="n">
-        <v>375.5499877929688</v>
-      </c>
-      <c r="C476" t="n">
-        <v>377.4500122070312</v>
-      </c>
-      <c r="D476" t="n">
-        <v>370.1000061035156</v>
-      </c>
-      <c r="E476" t="n">
-        <v>376</v>
-      </c>
-      <c r="F476" t="n">
-        <v>1732286</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>45636</v>
-      </c>
-      <c r="B477" t="n">
-        <v>381.2999877929688</v>
-      </c>
-      <c r="C477" t="n">
-        <v>383.3999938964844</v>
-      </c>
-      <c r="D477" t="n">
-        <v>373.2999877929688</v>
-      </c>
-      <c r="E477" t="n">
-        <v>376</v>
-      </c>
-      <c r="F477" t="n">
-        <v>3245620</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>45637</v>
-      </c>
-      <c r="B478" t="n">
-        <v>382.5</v>
-      </c>
-      <c r="C478" t="n">
-        <v>388.6499938964844</v>
-      </c>
-      <c r="D478" t="n">
-        <v>375.5499877929688</v>
-      </c>
-      <c r="E478" t="n">
-        <v>381.4500122070312</v>
-      </c>
-      <c r="F478" t="n">
-        <v>3767881</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>45638</v>
-      </c>
-      <c r="B479" t="n">
-        <v>383.7000122070312</v>
-      </c>
-      <c r="C479" t="n">
-        <v>391.5</v>
-      </c>
-      <c r="D479" t="n">
-        <v>382.5499877929688</v>
-      </c>
-      <c r="E479" t="n">
-        <v>384.9500122070312</v>
-      </c>
-      <c r="F479" t="n">
-        <v>3753546</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>45639</v>
-      </c>
-      <c r="B480" t="n">
-        <v>372.1499938964844</v>
-      </c>
-      <c r="C480" t="n">
-        <v>389.3500061035156</v>
-      </c>
-      <c r="D480" t="n">
-        <v>365.25</v>
-      </c>
-      <c r="E480" t="n">
-        <v>386.2000122070312</v>
-      </c>
-      <c r="F480" t="n">
-        <v>4608088</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B481" t="n">
-        <v>371.25</v>
-      </c>
-      <c r="C481" t="n">
-        <v>377.6000061035156</v>
-      </c>
-      <c r="D481" t="n">
-        <v>368.4500122070312</v>
-      </c>
-      <c r="E481" t="n">
-        <v>374</v>
-      </c>
-      <c r="F481" t="n">
-        <v>2778218</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>45643</v>
-      </c>
-      <c r="B482" t="n">
-        <v>366</v>
-      </c>
-      <c r="C482" t="n">
-        <v>376.3500061035156</v>
-      </c>
-      <c r="D482" t="n">
-        <v>363.25</v>
-      </c>
-      <c r="E482" t="n">
-        <v>372.5</v>
-      </c>
-      <c r="F482" t="n">
-        <v>2235414</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>45644</v>
-      </c>
-      <c r="B483" t="n">
-        <v>370.3999938964844</v>
-      </c>
-      <c r="C483" t="n">
-        <v>371</v>
-      </c>
-      <c r="D483" t="n">
-        <v>362.2999877929688</v>
-      </c>
-      <c r="E483" t="n">
-        <v>366</v>
-      </c>
-      <c r="F483" t="n">
-        <v>1955079</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>45645</v>
-      </c>
-      <c r="B484" t="n">
-        <v>365.6000061035156</v>
-      </c>
-      <c r="C484" t="n">
-        <v>369</v>
-      </c>
-      <c r="D484" t="n">
-        <v>358.6000061035156</v>
-      </c>
-      <c r="E484" t="n">
-        <v>364</v>
-      </c>
-      <c r="F484" t="n">
-        <v>1718227</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>45646</v>
-      </c>
-      <c r="B485" t="n">
-        <v>357.2999877929688</v>
-      </c>
-      <c r="C485" t="n">
-        <v>376.5</v>
-      </c>
-      <c r="D485" t="n">
-        <v>355.2000122070312</v>
-      </c>
-      <c r="E485" t="n">
-        <v>368.5</v>
-      </c>
-      <c r="F485" t="n">
-        <v>3893015</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B486" t="n">
-        <v>355.0499877929688</v>
-      </c>
-      <c r="C486" t="n">
-        <v>365</v>
-      </c>
-      <c r="D486" t="n">
-        <v>346.4500122070312</v>
-      </c>
-      <c r="E486" t="n">
-        <v>365</v>
-      </c>
-      <c r="F486" t="n">
-        <v>2403157</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>45650</v>
-      </c>
-      <c r="B487" t="n">
-        <v>358.5</v>
-      </c>
-      <c r="C487" t="n">
-        <v>361.2999877929688</v>
-      </c>
-      <c r="D487" t="n">
-        <v>353.7999877929688</v>
-      </c>
-      <c r="E487" t="n">
-        <v>358.2999877929688</v>
-      </c>
-      <c r="F487" t="n">
-        <v>1269499</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>45652</v>
-      </c>
-      <c r="B488" t="n">
-        <v>362.8500061035156</v>
-      </c>
-      <c r="C488" t="n">
-        <v>363.6000061035156</v>
-      </c>
-      <c r="D488" t="n">
-        <v>355.25</v>
-      </c>
-      <c r="E488" t="n">
-        <v>360.6499938964844</v>
-      </c>
-      <c r="F488" t="n">
-        <v>1385487</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>45653</v>
-      </c>
-      <c r="B489" t="n">
-        <v>368.6000061035156</v>
-      </c>
-      <c r="C489" t="n">
-        <v>369.7999877929688</v>
-      </c>
-      <c r="D489" t="n">
-        <v>356.6499938964844</v>
-      </c>
-      <c r="E489" t="n">
-        <v>362.7000122070312</v>
-      </c>
-      <c r="F489" t="n">
-        <v>2144350</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>45656</v>
-      </c>
-      <c r="B490" t="n">
-        <v>377.5499877929688</v>
-      </c>
-      <c r="C490" t="n">
-        <v>379.5499877929688</v>
-      </c>
-      <c r="D490" t="n">
-        <v>364.5</v>
-      </c>
-      <c r="E490" t="n">
-        <v>369.7000122070312</v>
-      </c>
-      <c r="F490" t="n">
-        <v>1901423</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/data/raw/FSL.NS_data.xlsx
+++ b/src/data/raw/FSL.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>99.12858581542969</v>
+        <v>99.12857818603516</v>
       </c>
       <c r="C2" t="n">
-        <v>99.70103046757173</v>
+        <v>99.70102279411921</v>
       </c>
       <c r="D2" t="n">
-        <v>98.3653214265545</v>
+        <v>98.36531385590433</v>
       </c>
       <c r="E2" t="n">
-        <v>98.79466037493255</v>
+        <v>98.79465277123846</v>
       </c>
       <c r="F2" t="n">
         <v>826539</v>
@@ -501,16 +501,16 @@
         <v>44931</v>
       </c>
       <c r="B4" t="n">
-        <v>97.60206604003906</v>
+        <v>97.60205841064453</v>
       </c>
       <c r="C4" t="n">
-        <v>98.31762368760818</v>
+        <v>98.31761600227968</v>
       </c>
       <c r="D4" t="n">
-        <v>96.64798917661358</v>
+        <v>96.64798162179768</v>
       </c>
       <c r="E4" t="n">
-        <v>97.69747227057584</v>
+        <v>97.69746463372357</v>
       </c>
       <c r="F4" t="n">
         <v>1159758</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>99.08087921142578</v>
+        <v>99.08087158203125</v>
       </c>
       <c r="C6" t="n">
-        <v>99.60562438945013</v>
+        <v>99.60561671964933</v>
       </c>
       <c r="D6" t="n">
-        <v>97.36354525240085</v>
+        <v>97.36353775524393</v>
       </c>
       <c r="E6" t="n">
-        <v>97.36354525240085</v>
+        <v>97.36353775524393</v>
       </c>
       <c r="F6" t="n">
         <v>1603109</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>99.60561370849609</v>
+        <v>99.60562133789062</v>
       </c>
       <c r="C12" t="n">
-        <v>100.1303515512228</v>
+        <v>100.1303592208102</v>
       </c>
       <c r="D12" t="n">
-        <v>98.79464993044355</v>
+        <v>98.79465749772149</v>
       </c>
       <c r="E12" t="n">
-        <v>100.1303515512228</v>
+        <v>100.1303592208102</v>
       </c>
       <c r="F12" t="n">
         <v>853144</v>
@@ -761,16 +761,16 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>101.7045822143555</v>
+        <v>101.70458984375</v>
       </c>
       <c r="C17" t="n">
-        <v>102.2770268204832</v>
+        <v>102.2770344928198</v>
       </c>
       <c r="D17" t="n">
-        <v>99.89183489576087</v>
+        <v>99.8918423891717</v>
       </c>
       <c r="E17" t="n">
-        <v>100.7505054444665</v>
+        <v>100.7505130022908</v>
       </c>
       <c r="F17" t="n">
         <v>4432835</v>
@@ -841,16 +841,16 @@
         <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>103.0879974365234</v>
+        <v>103.088005065918</v>
       </c>
       <c r="C21" t="n">
-        <v>103.6127352901959</v>
+        <v>103.6127429584256</v>
       </c>
       <c r="D21" t="n">
-        <v>100.3688728312927</v>
+        <v>100.3688802594487</v>
       </c>
       <c r="E21" t="n">
-        <v>102.610959053715</v>
+        <v>102.6109666478046</v>
       </c>
       <c r="F21" t="n">
         <v>2187458</v>
@@ -861,16 +861,16 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>103.2311019897461</v>
+        <v>103.2311096191406</v>
       </c>
       <c r="C22" t="n">
-        <v>104.8053300914596</v>
+        <v>104.805337837199</v>
       </c>
       <c r="D22" t="n">
-        <v>101.4660614486246</v>
+        <v>101.4660689475721</v>
       </c>
       <c r="E22" t="n">
-        <v>103.0879962997041</v>
+        <v>103.0880039185223</v>
       </c>
       <c r="F22" t="n">
         <v>2550463</v>
@@ -881,16 +881,16 @@
         <v>44959</v>
       </c>
       <c r="B23" t="n">
-        <v>106.3795623779297</v>
+        <v>106.3795700073242</v>
       </c>
       <c r="C23" t="n">
-        <v>107.6198651199563</v>
+        <v>107.6198728383036</v>
       </c>
       <c r="D23" t="n">
-        <v>103.0402936037346</v>
+        <v>103.0403009936414</v>
       </c>
       <c r="E23" t="n">
-        <v>103.2311060506487</v>
+        <v>103.2311134542403</v>
       </c>
       <c r="F23" t="n">
         <v>6695095</v>
@@ -921,16 +921,16 @@
         <v>44963</v>
       </c>
       <c r="B25" t="n">
-        <v>112.0563201904297</v>
+        <v>112.0563125610352</v>
       </c>
       <c r="C25" t="n">
-        <v>114.775444965043</v>
+        <v>114.7754371505159</v>
       </c>
       <c r="D25" t="n">
-        <v>110.338986272758</v>
+        <v>110.3389787602888</v>
       </c>
       <c r="E25" t="n">
-        <v>111.5315823040697</v>
+        <v>111.5315747104021</v>
       </c>
       <c r="F25" t="n">
         <v>5928684</v>
@@ -1061,16 +1061,16 @@
         <v>44972</v>
       </c>
       <c r="B32" t="n">
-        <v>114.202995300293</v>
+        <v>114.2029876708984</v>
       </c>
       <c r="C32" t="n">
-        <v>114.9662596870049</v>
+        <v>114.9662520066201</v>
       </c>
       <c r="D32" t="n">
-        <v>111.9132166982146</v>
+        <v>111.91320922179</v>
       </c>
       <c r="E32" t="n">
-        <v>112.7718800344796</v>
+        <v>112.7718725006916</v>
       </c>
       <c r="F32" t="n">
         <v>1860957</v>
